--- a/Doc/ExcelConfig/Datas/商店/ShopConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/商店/ShopConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="232">
   <si>
     <t>##</t>
   </si>
@@ -360,6 +360,375 @@
   </si>
   <si>
     <t>道具49</t>
+  </si>
+  <si>
+    <t>亚巴顿经验</t>
+  </si>
+  <si>
+    <t>孽主经验</t>
+  </si>
+  <si>
+    <t>炼金经验</t>
+  </si>
+  <si>
+    <t>远古冰魄经验</t>
+  </si>
+  <si>
+    <t>敌法师经验</t>
+  </si>
+  <si>
+    <t>天穹守望者经验</t>
+  </si>
+  <si>
+    <t>斧王经验</t>
+  </si>
+  <si>
+    <t>祸乱之源经验</t>
+  </si>
+  <si>
+    <t>蝙蝠骑士经验</t>
+  </si>
+  <si>
+    <t>兽王经验</t>
+  </si>
+  <si>
+    <t>血魔经验</t>
+  </si>
+  <si>
+    <t>赏金猎人经验</t>
+  </si>
+  <si>
+    <t>熊猫酒仙经验</t>
+  </si>
+  <si>
+    <t>刚被兽经验</t>
+  </si>
+  <si>
+    <t>蜘蛛经验</t>
+  </si>
+  <si>
+    <t>半人马战行者经验</t>
+  </si>
+  <si>
+    <t>混沌骑士经验</t>
+  </si>
+  <si>
+    <t>陈经验</t>
+  </si>
+  <si>
+    <t>克林克兹经验</t>
+  </si>
+  <si>
+    <t>水晶室女经验</t>
+  </si>
+  <si>
+    <t>黑暗贤者经验</t>
+  </si>
+  <si>
+    <t>邪影芳灵经验</t>
+  </si>
+  <si>
+    <t>破晓辰星经验</t>
+  </si>
+  <si>
+    <t>戴泽经验</t>
+  </si>
+  <si>
+    <t>死亡先知经验</t>
+  </si>
+  <si>
+    <t>干扰者经验</t>
+  </si>
+  <si>
+    <t>末日经验</t>
+  </si>
+  <si>
+    <t>龙骑士经验</t>
+  </si>
+  <si>
+    <t>卓尔游侠经验</t>
+  </si>
+  <si>
+    <t>大地之灵经验</t>
+  </si>
+  <si>
+    <t>撼地者经验</t>
+  </si>
+  <si>
+    <t>上古巨神经验</t>
+  </si>
+  <si>
+    <t>灰烬之灵经验</t>
+  </si>
+  <si>
+    <t>魅惑魔女经验</t>
+  </si>
+  <si>
+    <t>谜团经验</t>
+  </si>
+  <si>
+    <t>JB脸经验</t>
+  </si>
+  <si>
+    <t>先知经验</t>
+  </si>
+  <si>
+    <t>天涯墨客经验</t>
+  </si>
+  <si>
+    <t>矮人直升机经验</t>
+  </si>
+  <si>
+    <t>小松鼠经验</t>
+  </si>
+  <si>
+    <t>神灵武士经验</t>
+  </si>
+  <si>
+    <t>祈求着经验</t>
+  </si>
+  <si>
+    <t>双头龙经验</t>
+  </si>
+  <si>
+    <t>主宰经验</t>
+  </si>
+  <si>
+    <t>光法经验</t>
+  </si>
+  <si>
+    <t>船长经验</t>
+  </si>
+  <si>
+    <t>军团经验</t>
+  </si>
+  <si>
+    <t>拉希克经验</t>
+  </si>
+  <si>
+    <t>巫妖经验</t>
+  </si>
+  <si>
+    <t>小狗经验</t>
+  </si>
+  <si>
+    <t>莉娜经验</t>
+  </si>
+  <si>
+    <t>莱恩经验</t>
+  </si>
+  <si>
+    <t>德鲁伊经验</t>
+  </si>
+  <si>
+    <t>露娜经验</t>
+  </si>
+  <si>
+    <t>狼人经验</t>
+  </si>
+  <si>
+    <t>马格纳斯经验</t>
+  </si>
+  <si>
+    <t>玛西经验</t>
+  </si>
+  <si>
+    <t>马尔斯经验</t>
+  </si>
+  <si>
+    <t>美杜莎经验</t>
+  </si>
+  <si>
+    <t>米波经验</t>
+  </si>
+  <si>
+    <t>米拉娜经验</t>
+  </si>
+  <si>
+    <t>大圣经验</t>
+  </si>
+  <si>
+    <t>水人经验</t>
+  </si>
+  <si>
+    <t>娜迦海妖经验</t>
+  </si>
+  <si>
+    <t>瘟疫法师经验</t>
+  </si>
+  <si>
+    <t>影魔经验</t>
+  </si>
+  <si>
+    <t>暗夜魔王经验</t>
+  </si>
+  <si>
+    <t>小强经验</t>
+  </si>
+  <si>
+    <t>黑鸟经验</t>
+  </si>
+  <si>
+    <t>食人魔魔法师经验</t>
+  </si>
+  <si>
+    <t>全能骑士经验</t>
+  </si>
+  <si>
+    <t>神谕者经验</t>
+  </si>
+  <si>
+    <t>石鳞剑士经验</t>
+  </si>
+  <si>
+    <t>幻影刺客经验</t>
+  </si>
+  <si>
+    <t>幻影长矛手经验</t>
+  </si>
+  <si>
+    <t>凤凰经验</t>
+  </si>
+  <si>
+    <t>獸经验</t>
+  </si>
+  <si>
+    <t>帕克经验</t>
+  </si>
+  <si>
+    <t>屠夫经验</t>
+  </si>
+  <si>
+    <t>帕格纳经验</t>
+  </si>
+  <si>
+    <t>痛苦女王经验</t>
+  </si>
+  <si>
+    <t>发条地精经验</t>
+  </si>
+  <si>
+    <t>电棍经验</t>
+  </si>
+  <si>
+    <t>力丸经验</t>
+  </si>
+  <si>
+    <t>拉比克经验</t>
+  </si>
+  <si>
+    <t>沙王经验</t>
+  </si>
+  <si>
+    <t>暗影恶魔经验</t>
+  </si>
+  <si>
+    <t>小Y经验</t>
+  </si>
+  <si>
+    <t>伐木机经验</t>
+  </si>
+  <si>
+    <t>沉默术士经验</t>
+  </si>
+  <si>
+    <t>骷髅王经验</t>
+  </si>
+  <si>
+    <t>天怒法师经验</t>
+  </si>
+  <si>
+    <t>斯拉达经验</t>
+  </si>
+  <si>
+    <t>斯拉克经验</t>
+  </si>
+  <si>
+    <t>电炎绝手经验</t>
+  </si>
+  <si>
+    <t>狙击手经验</t>
+  </si>
+  <si>
+    <t>幽鬼经验</t>
+  </si>
+  <si>
+    <t>裂魂人经验</t>
+  </si>
+  <si>
+    <t>风暴之灵经验</t>
+  </si>
+  <si>
+    <t>斯文经验</t>
+  </si>
+  <si>
+    <t>地精工程师经验</t>
+  </si>
+  <si>
+    <t>圣堂刺客经验</t>
+  </si>
+  <si>
+    <t>灵魂守卫经验</t>
+  </si>
+  <si>
+    <t>潮汐猎人经验</t>
+  </si>
+  <si>
+    <t>修补匠经验</t>
+  </si>
+  <si>
+    <t>小小经验</t>
+  </si>
+  <si>
+    <t>大树经验</t>
+  </si>
+  <si>
+    <t>巨魔战将经验</t>
+  </si>
+  <si>
+    <t>海民经验</t>
+  </si>
+  <si>
+    <t>不朽尸王经验</t>
+  </si>
+  <si>
+    <t>熊战士经验</t>
+  </si>
+  <si>
+    <t>复仇之魂经验</t>
+  </si>
+  <si>
+    <t>剧毒术士经验</t>
+  </si>
+  <si>
+    <t>冥界亚龙经验</t>
+  </si>
+  <si>
+    <t>维萨吉经验</t>
+  </si>
+  <si>
+    <t>虚无之灵经验</t>
+  </si>
+  <si>
+    <t>术士经验</t>
+  </si>
+  <si>
+    <t>编织者经验</t>
+  </si>
+  <si>
+    <t>风行者经验</t>
+  </si>
+  <si>
+    <t>冰霜巨龙经验</t>
+  </si>
+  <si>
+    <t>艾欧经验</t>
+  </si>
+  <si>
+    <t>巫医经验</t>
+  </si>
+  <si>
+    <t>宙斯经验</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
@@ -1023,6 +1392,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1343,10 +1715,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z54"/>
+  <dimension ref="A1:Z175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:Z3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51:J175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1366,7 +1738,7 @@
     <col min="13" max="13" width="14.0833333333333" customWidth="1"/>
     <col min="14" max="15" width="12.75" customWidth="1"/>
     <col min="16" max="16" width="11.25" customWidth="1"/>
-    <col min="17" max="17" width="9.83333333333333" customWidth="1"/>
+    <col min="17" max="17" width="18.5" customWidth="1"/>
     <col min="18" max="18" width="9.25" customWidth="1"/>
     <col min="19" max="19" width="11.375" customWidth="1"/>
     <col min="20" max="20" width="9.75" customWidth="1"/>
@@ -3946,17 +4318,4329 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="10:10">
-      <c r="J53" s="13"/>
-    </row>
-    <row r="54" spans="10:10">
-      <c r="J54" s="13"/>
+    <row r="53" ht="15.5" spans="10:26">
+      <c r="J53" s="13">
+        <v>1049</v>
+      </c>
+      <c r="P53" s="13">
+        <v>11001</v>
+      </c>
+      <c r="Q53" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="R53">
+        <v>3</v>
+      </c>
+      <c r="S53" t="s">
+        <v>58</v>
+      </c>
+      <c r="T53">
+        <v>120</v>
+      </c>
+      <c r="U53">
+        <v>60</v>
+      </c>
+      <c r="V53">
+        <v>120</v>
+      </c>
+      <c r="W53">
+        <v>60</v>
+      </c>
+      <c r="X53">
+        <v>50</v>
+      </c>
+      <c r="Z53" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" ht="15.5" spans="10:26">
+      <c r="J54" s="13">
+        <v>1050</v>
+      </c>
+      <c r="P54" s="6">
+        <v>11002</v>
+      </c>
+      <c r="Q54" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="R54">
+        <v>3</v>
+      </c>
+      <c r="S54" t="s">
+        <v>58</v>
+      </c>
+      <c r="T54">
+        <v>120</v>
+      </c>
+      <c r="U54">
+        <v>60</v>
+      </c>
+      <c r="V54">
+        <v>120</v>
+      </c>
+      <c r="W54">
+        <v>60</v>
+      </c>
+      <c r="X54">
+        <v>50</v>
+      </c>
+      <c r="Z54" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" ht="15.5" spans="10:26">
+      <c r="J55" s="13">
+        <v>1051</v>
+      </c>
+      <c r="P55" s="13">
+        <v>11003</v>
+      </c>
+      <c r="Q55" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="R55">
+        <v>3</v>
+      </c>
+      <c r="S55" t="s">
+        <v>58</v>
+      </c>
+      <c r="T55">
+        <v>120</v>
+      </c>
+      <c r="U55">
+        <v>60</v>
+      </c>
+      <c r="V55">
+        <v>120</v>
+      </c>
+      <c r="W55">
+        <v>60</v>
+      </c>
+      <c r="X55">
+        <v>50</v>
+      </c>
+      <c r="Z55" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" ht="15.5" spans="10:26">
+      <c r="J56" s="13">
+        <v>1052</v>
+      </c>
+      <c r="P56" s="6">
+        <v>11004</v>
+      </c>
+      <c r="Q56" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="R56">
+        <v>3</v>
+      </c>
+      <c r="S56" t="s">
+        <v>58</v>
+      </c>
+      <c r="T56">
+        <v>120</v>
+      </c>
+      <c r="U56">
+        <v>60</v>
+      </c>
+      <c r="V56">
+        <v>120</v>
+      </c>
+      <c r="W56">
+        <v>60</v>
+      </c>
+      <c r="X56">
+        <v>50</v>
+      </c>
+      <c r="Z56" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" ht="15.5" spans="10:26">
+      <c r="J57" s="13">
+        <v>1053</v>
+      </c>
+      <c r="P57" s="13">
+        <v>11005</v>
+      </c>
+      <c r="Q57" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="R57">
+        <v>3</v>
+      </c>
+      <c r="S57" t="s">
+        <v>58</v>
+      </c>
+      <c r="T57">
+        <v>120</v>
+      </c>
+      <c r="U57">
+        <v>60</v>
+      </c>
+      <c r="V57">
+        <v>120</v>
+      </c>
+      <c r="W57">
+        <v>60</v>
+      </c>
+      <c r="X57">
+        <v>50</v>
+      </c>
+      <c r="Z57" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" ht="15.5" spans="10:26">
+      <c r="J58" s="13">
+        <v>1054</v>
+      </c>
+      <c r="P58" s="6">
+        <v>11006</v>
+      </c>
+      <c r="Q58" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="R58">
+        <v>3</v>
+      </c>
+      <c r="S58" t="s">
+        <v>58</v>
+      </c>
+      <c r="T58">
+        <v>120</v>
+      </c>
+      <c r="U58">
+        <v>60</v>
+      </c>
+      <c r="V58">
+        <v>120</v>
+      </c>
+      <c r="W58">
+        <v>60</v>
+      </c>
+      <c r="X58">
+        <v>50</v>
+      </c>
+      <c r="Z58" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" ht="15.5" spans="10:26">
+      <c r="J59" s="13">
+        <v>1055</v>
+      </c>
+      <c r="P59" s="13">
+        <v>11007</v>
+      </c>
+      <c r="Q59" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="R59">
+        <v>3</v>
+      </c>
+      <c r="S59" t="s">
+        <v>58</v>
+      </c>
+      <c r="T59">
+        <v>120</v>
+      </c>
+      <c r="U59">
+        <v>60</v>
+      </c>
+      <c r="V59">
+        <v>120</v>
+      </c>
+      <c r="W59">
+        <v>60</v>
+      </c>
+      <c r="X59">
+        <v>50</v>
+      </c>
+      <c r="Z59" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" ht="15.5" spans="10:26">
+      <c r="J60" s="13">
+        <v>1056</v>
+      </c>
+      <c r="P60" s="6">
+        <v>11008</v>
+      </c>
+      <c r="Q60" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="R60">
+        <v>3</v>
+      </c>
+      <c r="S60" t="s">
+        <v>58</v>
+      </c>
+      <c r="T60">
+        <v>120</v>
+      </c>
+      <c r="U60">
+        <v>60</v>
+      </c>
+      <c r="V60">
+        <v>120</v>
+      </c>
+      <c r="W60">
+        <v>60</v>
+      </c>
+      <c r="X60">
+        <v>50</v>
+      </c>
+      <c r="Z60" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" ht="15.5" spans="10:26">
+      <c r="J61" s="13">
+        <v>1057</v>
+      </c>
+      <c r="P61" s="13">
+        <v>11009</v>
+      </c>
+      <c r="Q61" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="R61">
+        <v>3</v>
+      </c>
+      <c r="S61" t="s">
+        <v>58</v>
+      </c>
+      <c r="T61">
+        <v>120</v>
+      </c>
+      <c r="U61">
+        <v>60</v>
+      </c>
+      <c r="V61">
+        <v>120</v>
+      </c>
+      <c r="W61">
+        <v>60</v>
+      </c>
+      <c r="X61">
+        <v>50</v>
+      </c>
+      <c r="Z61" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" ht="15.5" spans="10:26">
+      <c r="J62" s="13">
+        <v>1058</v>
+      </c>
+      <c r="P62" s="6">
+        <v>11010</v>
+      </c>
+      <c r="Q62" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="R62">
+        <v>3</v>
+      </c>
+      <c r="S62" t="s">
+        <v>58</v>
+      </c>
+      <c r="T62">
+        <v>120</v>
+      </c>
+      <c r="U62">
+        <v>60</v>
+      </c>
+      <c r="V62">
+        <v>120</v>
+      </c>
+      <c r="W62">
+        <v>60</v>
+      </c>
+      <c r="X62">
+        <v>50</v>
+      </c>
+      <c r="Z62" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" ht="15.5" spans="10:26">
+      <c r="J63" s="13">
+        <v>1059</v>
+      </c>
+      <c r="P63" s="13">
+        <v>11011</v>
+      </c>
+      <c r="Q63" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="R63">
+        <v>3</v>
+      </c>
+      <c r="S63" t="s">
+        <v>58</v>
+      </c>
+      <c r="T63">
+        <v>120</v>
+      </c>
+      <c r="U63">
+        <v>60</v>
+      </c>
+      <c r="V63">
+        <v>120</v>
+      </c>
+      <c r="W63">
+        <v>60</v>
+      </c>
+      <c r="X63">
+        <v>50</v>
+      </c>
+      <c r="Z63" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" ht="15.5" spans="10:26">
+      <c r="J64" s="13">
+        <v>1060</v>
+      </c>
+      <c r="P64" s="6">
+        <v>11012</v>
+      </c>
+      <c r="Q64" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="R64">
+        <v>3</v>
+      </c>
+      <c r="S64" t="s">
+        <v>58</v>
+      </c>
+      <c r="T64">
+        <v>120</v>
+      </c>
+      <c r="U64">
+        <v>60</v>
+      </c>
+      <c r="V64">
+        <v>120</v>
+      </c>
+      <c r="W64">
+        <v>60</v>
+      </c>
+      <c r="X64">
+        <v>50</v>
+      </c>
+      <c r="Z64" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" ht="15.5" spans="10:26">
+      <c r="J65" s="13">
+        <v>1061</v>
+      </c>
+      <c r="P65" s="13">
+        <v>11013</v>
+      </c>
+      <c r="Q65" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="R65">
+        <v>3</v>
+      </c>
+      <c r="S65" t="s">
+        <v>58</v>
+      </c>
+      <c r="T65">
+        <v>120</v>
+      </c>
+      <c r="U65">
+        <v>60</v>
+      </c>
+      <c r="V65">
+        <v>120</v>
+      </c>
+      <c r="W65">
+        <v>60</v>
+      </c>
+      <c r="X65">
+        <v>50</v>
+      </c>
+      <c r="Z65" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" ht="15.5" spans="10:26">
+      <c r="J66" s="13">
+        <v>1062</v>
+      </c>
+      <c r="P66" s="6">
+        <v>11014</v>
+      </c>
+      <c r="Q66" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="R66">
+        <v>3</v>
+      </c>
+      <c r="S66" t="s">
+        <v>58</v>
+      </c>
+      <c r="T66">
+        <v>120</v>
+      </c>
+      <c r="U66">
+        <v>60</v>
+      </c>
+      <c r="V66">
+        <v>120</v>
+      </c>
+      <c r="W66">
+        <v>60</v>
+      </c>
+      <c r="X66">
+        <v>50</v>
+      </c>
+      <c r="Z66" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" ht="15.5" spans="10:26">
+      <c r="J67" s="13">
+        <v>1063</v>
+      </c>
+      <c r="P67" s="13">
+        <v>11015</v>
+      </c>
+      <c r="Q67" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="R67">
+        <v>3</v>
+      </c>
+      <c r="S67" t="s">
+        <v>58</v>
+      </c>
+      <c r="T67">
+        <v>120</v>
+      </c>
+      <c r="U67">
+        <v>60</v>
+      </c>
+      <c r="V67">
+        <v>120</v>
+      </c>
+      <c r="W67">
+        <v>60</v>
+      </c>
+      <c r="X67">
+        <v>50</v>
+      </c>
+      <c r="Z67" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" ht="15.5" spans="10:26">
+      <c r="J68" s="13">
+        <v>1064</v>
+      </c>
+      <c r="P68" s="6">
+        <v>11016</v>
+      </c>
+      <c r="Q68" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="R68">
+        <v>3</v>
+      </c>
+      <c r="S68" t="s">
+        <v>58</v>
+      </c>
+      <c r="T68">
+        <v>120</v>
+      </c>
+      <c r="U68">
+        <v>60</v>
+      </c>
+      <c r="V68">
+        <v>120</v>
+      </c>
+      <c r="W68">
+        <v>60</v>
+      </c>
+      <c r="X68">
+        <v>50</v>
+      </c>
+      <c r="Z68" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" ht="15.5" spans="10:26">
+      <c r="J69" s="13">
+        <v>1065</v>
+      </c>
+      <c r="P69" s="13">
+        <v>11017</v>
+      </c>
+      <c r="Q69" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="R69">
+        <v>3</v>
+      </c>
+      <c r="S69" t="s">
+        <v>58</v>
+      </c>
+      <c r="T69">
+        <v>120</v>
+      </c>
+      <c r="U69">
+        <v>60</v>
+      </c>
+      <c r="V69">
+        <v>120</v>
+      </c>
+      <c r="W69">
+        <v>60</v>
+      </c>
+      <c r="X69">
+        <v>50</v>
+      </c>
+      <c r="Z69" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" ht="15.5" spans="10:26">
+      <c r="J70" s="13">
+        <v>1066</v>
+      </c>
+      <c r="P70" s="6">
+        <v>11018</v>
+      </c>
+      <c r="Q70" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="R70">
+        <v>3</v>
+      </c>
+      <c r="S70" t="s">
+        <v>58</v>
+      </c>
+      <c r="T70">
+        <v>120</v>
+      </c>
+      <c r="U70">
+        <v>60</v>
+      </c>
+      <c r="V70">
+        <v>120</v>
+      </c>
+      <c r="W70">
+        <v>60</v>
+      </c>
+      <c r="X70">
+        <v>50</v>
+      </c>
+      <c r="Z70" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" ht="15.5" spans="10:26">
+      <c r="J71" s="13">
+        <v>1067</v>
+      </c>
+      <c r="P71" s="13">
+        <v>11019</v>
+      </c>
+      <c r="Q71" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="R71">
+        <v>3</v>
+      </c>
+      <c r="S71" t="s">
+        <v>58</v>
+      </c>
+      <c r="T71">
+        <v>120</v>
+      </c>
+      <c r="U71">
+        <v>60</v>
+      </c>
+      <c r="V71">
+        <v>120</v>
+      </c>
+      <c r="W71">
+        <v>60</v>
+      </c>
+      <c r="X71">
+        <v>50</v>
+      </c>
+      <c r="Z71" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" ht="15.5" spans="10:26">
+      <c r="J72" s="13">
+        <v>1068</v>
+      </c>
+      <c r="P72" s="6">
+        <v>11020</v>
+      </c>
+      <c r="Q72" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="R72">
+        <v>3</v>
+      </c>
+      <c r="S72" t="s">
+        <v>58</v>
+      </c>
+      <c r="T72">
+        <v>120</v>
+      </c>
+      <c r="U72">
+        <v>60</v>
+      </c>
+      <c r="V72">
+        <v>120</v>
+      </c>
+      <c r="W72">
+        <v>60</v>
+      </c>
+      <c r="X72">
+        <v>50</v>
+      </c>
+      <c r="Z72" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" ht="15.5" spans="10:26">
+      <c r="J73" s="13">
+        <v>1069</v>
+      </c>
+      <c r="P73" s="13">
+        <v>11021</v>
+      </c>
+      <c r="Q73" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="R73">
+        <v>3</v>
+      </c>
+      <c r="S73" t="s">
+        <v>58</v>
+      </c>
+      <c r="T73">
+        <v>120</v>
+      </c>
+      <c r="U73">
+        <v>60</v>
+      </c>
+      <c r="V73">
+        <v>120</v>
+      </c>
+      <c r="W73">
+        <v>60</v>
+      </c>
+      <c r="X73">
+        <v>50</v>
+      </c>
+      <c r="Z73" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" ht="15.5" spans="10:26">
+      <c r="J74" s="13">
+        <v>1070</v>
+      </c>
+      <c r="P74" s="6">
+        <v>11022</v>
+      </c>
+      <c r="Q74" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="R74">
+        <v>3</v>
+      </c>
+      <c r="S74" t="s">
+        <v>58</v>
+      </c>
+      <c r="T74">
+        <v>120</v>
+      </c>
+      <c r="U74">
+        <v>60</v>
+      </c>
+      <c r="V74">
+        <v>120</v>
+      </c>
+      <c r="W74">
+        <v>60</v>
+      </c>
+      <c r="X74">
+        <v>50</v>
+      </c>
+      <c r="Z74" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" ht="15.5" spans="10:26">
+      <c r="J75" s="13">
+        <v>1071</v>
+      </c>
+      <c r="P75" s="13">
+        <v>11023</v>
+      </c>
+      <c r="Q75" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="R75">
+        <v>3</v>
+      </c>
+      <c r="S75" t="s">
+        <v>58</v>
+      </c>
+      <c r="T75">
+        <v>120</v>
+      </c>
+      <c r="U75">
+        <v>60</v>
+      </c>
+      <c r="V75">
+        <v>120</v>
+      </c>
+      <c r="W75">
+        <v>60</v>
+      </c>
+      <c r="X75">
+        <v>50</v>
+      </c>
+      <c r="Z75" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" ht="15.5" spans="10:26">
+      <c r="J76" s="13">
+        <v>1072</v>
+      </c>
+      <c r="P76" s="6">
+        <v>11024</v>
+      </c>
+      <c r="Q76" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="R76">
+        <v>3</v>
+      </c>
+      <c r="S76" t="s">
+        <v>58</v>
+      </c>
+      <c r="T76">
+        <v>120</v>
+      </c>
+      <c r="U76">
+        <v>60</v>
+      </c>
+      <c r="V76">
+        <v>120</v>
+      </c>
+      <c r="W76">
+        <v>60</v>
+      </c>
+      <c r="X76">
+        <v>50</v>
+      </c>
+      <c r="Z76" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" ht="15.5" spans="10:26">
+      <c r="J77" s="13">
+        <v>1073</v>
+      </c>
+      <c r="P77" s="13">
+        <v>11025</v>
+      </c>
+      <c r="Q77" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77" t="s">
+        <v>58</v>
+      </c>
+      <c r="T77">
+        <v>120</v>
+      </c>
+      <c r="U77">
+        <v>60</v>
+      </c>
+      <c r="V77">
+        <v>120</v>
+      </c>
+      <c r="W77">
+        <v>60</v>
+      </c>
+      <c r="X77">
+        <v>50</v>
+      </c>
+      <c r="Z77" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" ht="15.5" spans="10:26">
+      <c r="J78" s="13">
+        <v>1074</v>
+      </c>
+      <c r="P78" s="6">
+        <v>11026</v>
+      </c>
+      <c r="Q78" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="R78">
+        <v>3</v>
+      </c>
+      <c r="S78" t="s">
+        <v>58</v>
+      </c>
+      <c r="T78">
+        <v>120</v>
+      </c>
+      <c r="U78">
+        <v>60</v>
+      </c>
+      <c r="V78">
+        <v>120</v>
+      </c>
+      <c r="W78">
+        <v>60</v>
+      </c>
+      <c r="X78">
+        <v>50</v>
+      </c>
+      <c r="Z78" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" ht="15.5" spans="10:26">
+      <c r="J79" s="13">
+        <v>1075</v>
+      </c>
+      <c r="P79" s="13">
+        <v>11027</v>
+      </c>
+      <c r="Q79" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="R79">
+        <v>3</v>
+      </c>
+      <c r="S79" t="s">
+        <v>58</v>
+      </c>
+      <c r="T79">
+        <v>120</v>
+      </c>
+      <c r="U79">
+        <v>60</v>
+      </c>
+      <c r="V79">
+        <v>120</v>
+      </c>
+      <c r="W79">
+        <v>60</v>
+      </c>
+      <c r="X79">
+        <v>50</v>
+      </c>
+      <c r="Z79" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" ht="15.5" spans="10:26">
+      <c r="J80" s="13">
+        <v>1076</v>
+      </c>
+      <c r="P80" s="6">
+        <v>11028</v>
+      </c>
+      <c r="Q80" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="R80">
+        <v>3</v>
+      </c>
+      <c r="S80" t="s">
+        <v>58</v>
+      </c>
+      <c r="T80">
+        <v>120</v>
+      </c>
+      <c r="U80">
+        <v>60</v>
+      </c>
+      <c r="V80">
+        <v>120</v>
+      </c>
+      <c r="W80">
+        <v>60</v>
+      </c>
+      <c r="X80">
+        <v>50</v>
+      </c>
+      <c r="Z80" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" ht="15.5" spans="10:26">
+      <c r="J81" s="13">
+        <v>1077</v>
+      </c>
+      <c r="P81" s="13">
+        <v>11029</v>
+      </c>
+      <c r="Q81" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="R81">
+        <v>3</v>
+      </c>
+      <c r="S81" t="s">
+        <v>58</v>
+      </c>
+      <c r="T81">
+        <v>120</v>
+      </c>
+      <c r="U81">
+        <v>60</v>
+      </c>
+      <c r="V81">
+        <v>120</v>
+      </c>
+      <c r="W81">
+        <v>60</v>
+      </c>
+      <c r="X81">
+        <v>50</v>
+      </c>
+      <c r="Z81" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" ht="15.5" spans="10:26">
+      <c r="J82" s="13">
+        <v>1078</v>
+      </c>
+      <c r="P82" s="6">
+        <v>11030</v>
+      </c>
+      <c r="Q82" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="R82">
+        <v>3</v>
+      </c>
+      <c r="S82" t="s">
+        <v>58</v>
+      </c>
+      <c r="T82">
+        <v>120</v>
+      </c>
+      <c r="U82">
+        <v>60</v>
+      </c>
+      <c r="V82">
+        <v>120</v>
+      </c>
+      <c r="W82">
+        <v>60</v>
+      </c>
+      <c r="X82">
+        <v>50</v>
+      </c>
+      <c r="Z82" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" ht="15.5" spans="10:26">
+      <c r="J83" s="13">
+        <v>1079</v>
+      </c>
+      <c r="P83" s="13">
+        <v>11031</v>
+      </c>
+      <c r="Q83" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="R83">
+        <v>3</v>
+      </c>
+      <c r="S83" t="s">
+        <v>58</v>
+      </c>
+      <c r="T83">
+        <v>120</v>
+      </c>
+      <c r="U83">
+        <v>60</v>
+      </c>
+      <c r="V83">
+        <v>120</v>
+      </c>
+      <c r="W83">
+        <v>60</v>
+      </c>
+      <c r="X83">
+        <v>50</v>
+      </c>
+      <c r="Z83" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" ht="15.5" spans="10:26">
+      <c r="J84" s="13">
+        <v>1080</v>
+      </c>
+      <c r="P84" s="6">
+        <v>11032</v>
+      </c>
+      <c r="Q84" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="R84">
+        <v>3</v>
+      </c>
+      <c r="S84" t="s">
+        <v>58</v>
+      </c>
+      <c r="T84">
+        <v>120</v>
+      </c>
+      <c r="U84">
+        <v>60</v>
+      </c>
+      <c r="V84">
+        <v>120</v>
+      </c>
+      <c r="W84">
+        <v>60</v>
+      </c>
+      <c r="X84">
+        <v>50</v>
+      </c>
+      <c r="Z84" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" ht="15.5" spans="10:26">
+      <c r="J85" s="13">
+        <v>1081</v>
+      </c>
+      <c r="P85" s="13">
+        <v>11033</v>
+      </c>
+      <c r="Q85" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="R85">
+        <v>3</v>
+      </c>
+      <c r="S85" t="s">
+        <v>58</v>
+      </c>
+      <c r="T85">
+        <v>120</v>
+      </c>
+      <c r="U85">
+        <v>60</v>
+      </c>
+      <c r="V85">
+        <v>120</v>
+      </c>
+      <c r="W85">
+        <v>60</v>
+      </c>
+      <c r="X85">
+        <v>50</v>
+      </c>
+      <c r="Z85" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" ht="15.5" spans="10:26">
+      <c r="J86" s="13">
+        <v>1082</v>
+      </c>
+      <c r="P86" s="6">
+        <v>11034</v>
+      </c>
+      <c r="Q86" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="R86">
+        <v>3</v>
+      </c>
+      <c r="S86" t="s">
+        <v>58</v>
+      </c>
+      <c r="T86">
+        <v>120</v>
+      </c>
+      <c r="U86">
+        <v>60</v>
+      </c>
+      <c r="V86">
+        <v>120</v>
+      </c>
+      <c r="W86">
+        <v>60</v>
+      </c>
+      <c r="X86">
+        <v>50</v>
+      </c>
+      <c r="Z86" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" ht="15.5" spans="10:26">
+      <c r="J87" s="13">
+        <v>1083</v>
+      </c>
+      <c r="P87" s="13">
+        <v>11035</v>
+      </c>
+      <c r="Q87" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="R87">
+        <v>3</v>
+      </c>
+      <c r="S87" t="s">
+        <v>58</v>
+      </c>
+      <c r="T87">
+        <v>120</v>
+      </c>
+      <c r="U87">
+        <v>60</v>
+      </c>
+      <c r="V87">
+        <v>120</v>
+      </c>
+      <c r="W87">
+        <v>60</v>
+      </c>
+      <c r="X87">
+        <v>50</v>
+      </c>
+      <c r="Z87" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" ht="15.5" spans="10:26">
+      <c r="J88" s="13">
+        <v>1084</v>
+      </c>
+      <c r="P88" s="6">
+        <v>11036</v>
+      </c>
+      <c r="Q88" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="R88">
+        <v>3</v>
+      </c>
+      <c r="S88" t="s">
+        <v>58</v>
+      </c>
+      <c r="T88">
+        <v>120</v>
+      </c>
+      <c r="U88">
+        <v>60</v>
+      </c>
+      <c r="V88">
+        <v>120</v>
+      </c>
+      <c r="W88">
+        <v>60</v>
+      </c>
+      <c r="X88">
+        <v>50</v>
+      </c>
+      <c r="Z88" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" ht="15.5" spans="10:26">
+      <c r="J89" s="13">
+        <v>1085</v>
+      </c>
+      <c r="P89" s="13">
+        <v>11037</v>
+      </c>
+      <c r="Q89" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="R89">
+        <v>3</v>
+      </c>
+      <c r="S89" t="s">
+        <v>58</v>
+      </c>
+      <c r="T89">
+        <v>120</v>
+      </c>
+      <c r="U89">
+        <v>60</v>
+      </c>
+      <c r="V89">
+        <v>120</v>
+      </c>
+      <c r="W89">
+        <v>60</v>
+      </c>
+      <c r="X89">
+        <v>50</v>
+      </c>
+      <c r="Z89" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" ht="15.5" spans="10:26">
+      <c r="J90" s="13">
+        <v>1086</v>
+      </c>
+      <c r="P90" s="6">
+        <v>11038</v>
+      </c>
+      <c r="Q90" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="R90">
+        <v>3</v>
+      </c>
+      <c r="S90" t="s">
+        <v>58</v>
+      </c>
+      <c r="T90">
+        <v>120</v>
+      </c>
+      <c r="U90">
+        <v>60</v>
+      </c>
+      <c r="V90">
+        <v>120</v>
+      </c>
+      <c r="W90">
+        <v>60</v>
+      </c>
+      <c r="X90">
+        <v>50</v>
+      </c>
+      <c r="Z90" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" ht="15.5" spans="10:26">
+      <c r="J91" s="13">
+        <v>1087</v>
+      </c>
+      <c r="P91" s="13">
+        <v>11039</v>
+      </c>
+      <c r="Q91" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="R91">
+        <v>3</v>
+      </c>
+      <c r="S91" t="s">
+        <v>58</v>
+      </c>
+      <c r="T91">
+        <v>120</v>
+      </c>
+      <c r="U91">
+        <v>60</v>
+      </c>
+      <c r="V91">
+        <v>120</v>
+      </c>
+      <c r="W91">
+        <v>60</v>
+      </c>
+      <c r="X91">
+        <v>50</v>
+      </c>
+      <c r="Z91" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" ht="15.5" spans="10:26">
+      <c r="J92" s="13">
+        <v>1088</v>
+      </c>
+      <c r="P92" s="6">
+        <v>11040</v>
+      </c>
+      <c r="Q92" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="R92">
+        <v>3</v>
+      </c>
+      <c r="S92" t="s">
+        <v>58</v>
+      </c>
+      <c r="T92">
+        <v>120</v>
+      </c>
+      <c r="U92">
+        <v>60</v>
+      </c>
+      <c r="V92">
+        <v>120</v>
+      </c>
+      <c r="W92">
+        <v>60</v>
+      </c>
+      <c r="X92">
+        <v>50</v>
+      </c>
+      <c r="Z92" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" ht="15.5" spans="10:26">
+      <c r="J93" s="13">
+        <v>1089</v>
+      </c>
+      <c r="P93" s="13">
+        <v>11041</v>
+      </c>
+      <c r="Q93" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="R93">
+        <v>3</v>
+      </c>
+      <c r="S93" t="s">
+        <v>58</v>
+      </c>
+      <c r="T93">
+        <v>120</v>
+      </c>
+      <c r="U93">
+        <v>60</v>
+      </c>
+      <c r="V93">
+        <v>120</v>
+      </c>
+      <c r="W93">
+        <v>60</v>
+      </c>
+      <c r="X93">
+        <v>50</v>
+      </c>
+      <c r="Z93" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" ht="15.5" spans="10:26">
+      <c r="J94" s="13">
+        <v>1090</v>
+      </c>
+      <c r="P94" s="6">
+        <v>11042</v>
+      </c>
+      <c r="Q94" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="R94">
+        <v>3</v>
+      </c>
+      <c r="S94" t="s">
+        <v>58</v>
+      </c>
+      <c r="T94">
+        <v>120</v>
+      </c>
+      <c r="U94">
+        <v>60</v>
+      </c>
+      <c r="V94">
+        <v>120</v>
+      </c>
+      <c r="W94">
+        <v>60</v>
+      </c>
+      <c r="X94">
+        <v>50</v>
+      </c>
+      <c r="Z94" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" ht="15.5" spans="10:26">
+      <c r="J95" s="13">
+        <v>1091</v>
+      </c>
+      <c r="P95" s="13">
+        <v>11043</v>
+      </c>
+      <c r="Q95" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="R95">
+        <v>3</v>
+      </c>
+      <c r="S95" t="s">
+        <v>58</v>
+      </c>
+      <c r="T95">
+        <v>120</v>
+      </c>
+      <c r="U95">
+        <v>60</v>
+      </c>
+      <c r="V95">
+        <v>120</v>
+      </c>
+      <c r="W95">
+        <v>60</v>
+      </c>
+      <c r="X95">
+        <v>50</v>
+      </c>
+      <c r="Z95" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" ht="15.5" spans="10:26">
+      <c r="J96" s="13">
+        <v>1092</v>
+      </c>
+      <c r="P96" s="6">
+        <v>11044</v>
+      </c>
+      <c r="Q96" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="R96">
+        <v>3</v>
+      </c>
+      <c r="S96" t="s">
+        <v>58</v>
+      </c>
+      <c r="T96">
+        <v>120</v>
+      </c>
+      <c r="U96">
+        <v>60</v>
+      </c>
+      <c r="V96">
+        <v>120</v>
+      </c>
+      <c r="W96">
+        <v>60</v>
+      </c>
+      <c r="X96">
+        <v>50</v>
+      </c>
+      <c r="Z96" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" ht="15.5" spans="10:26">
+      <c r="J97" s="13">
+        <v>1093</v>
+      </c>
+      <c r="P97" s="13">
+        <v>11045</v>
+      </c>
+      <c r="Q97" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="R97">
+        <v>3</v>
+      </c>
+      <c r="S97" t="s">
+        <v>58</v>
+      </c>
+      <c r="T97">
+        <v>120</v>
+      </c>
+      <c r="U97">
+        <v>60</v>
+      </c>
+      <c r="V97">
+        <v>120</v>
+      </c>
+      <c r="W97">
+        <v>60</v>
+      </c>
+      <c r="X97">
+        <v>50</v>
+      </c>
+      <c r="Z97" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" ht="15.5" spans="10:26">
+      <c r="J98" s="13">
+        <v>1094</v>
+      </c>
+      <c r="P98" s="6">
+        <v>11046</v>
+      </c>
+      <c r="Q98" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="R98">
+        <v>3</v>
+      </c>
+      <c r="S98" t="s">
+        <v>58</v>
+      </c>
+      <c r="T98">
+        <v>120</v>
+      </c>
+      <c r="U98">
+        <v>60</v>
+      </c>
+      <c r="V98">
+        <v>120</v>
+      </c>
+      <c r="W98">
+        <v>60</v>
+      </c>
+      <c r="X98">
+        <v>50</v>
+      </c>
+      <c r="Z98" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" ht="15.5" spans="10:26">
+      <c r="J99" s="13">
+        <v>1095</v>
+      </c>
+      <c r="P99" s="13">
+        <v>11047</v>
+      </c>
+      <c r="Q99" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="R99">
+        <v>3</v>
+      </c>
+      <c r="S99" t="s">
+        <v>58</v>
+      </c>
+      <c r="T99">
+        <v>120</v>
+      </c>
+      <c r="U99">
+        <v>60</v>
+      </c>
+      <c r="V99">
+        <v>120</v>
+      </c>
+      <c r="W99">
+        <v>60</v>
+      </c>
+      <c r="X99">
+        <v>50</v>
+      </c>
+      <c r="Z99" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" ht="15.5" spans="10:26">
+      <c r="J100" s="13">
+        <v>1096</v>
+      </c>
+      <c r="P100" s="6">
+        <v>11048</v>
+      </c>
+      <c r="Q100" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="R100">
+        <v>3</v>
+      </c>
+      <c r="S100" t="s">
+        <v>58</v>
+      </c>
+      <c r="T100">
+        <v>120</v>
+      </c>
+      <c r="U100">
+        <v>60</v>
+      </c>
+      <c r="V100">
+        <v>120</v>
+      </c>
+      <c r="W100">
+        <v>60</v>
+      </c>
+      <c r="X100">
+        <v>50</v>
+      </c>
+      <c r="Z100" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" ht="15.5" spans="10:26">
+      <c r="J101" s="13">
+        <v>1097</v>
+      </c>
+      <c r="P101" s="13">
+        <v>11049</v>
+      </c>
+      <c r="Q101" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="R101">
+        <v>3</v>
+      </c>
+      <c r="S101" t="s">
+        <v>58</v>
+      </c>
+      <c r="T101">
+        <v>120</v>
+      </c>
+      <c r="U101">
+        <v>60</v>
+      </c>
+      <c r="V101">
+        <v>120</v>
+      </c>
+      <c r="W101">
+        <v>60</v>
+      </c>
+      <c r="X101">
+        <v>50</v>
+      </c>
+      <c r="Z101" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" ht="15.5" spans="10:26">
+      <c r="J102" s="13">
+        <v>1098</v>
+      </c>
+      <c r="P102" s="6">
+        <v>11050</v>
+      </c>
+      <c r="Q102" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="R102">
+        <v>3</v>
+      </c>
+      <c r="S102" t="s">
+        <v>58</v>
+      </c>
+      <c r="T102">
+        <v>120</v>
+      </c>
+      <c r="U102">
+        <v>60</v>
+      </c>
+      <c r="V102">
+        <v>120</v>
+      </c>
+      <c r="W102">
+        <v>60</v>
+      </c>
+      <c r="X102">
+        <v>50</v>
+      </c>
+      <c r="Z102" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" ht="15.5" spans="10:26">
+      <c r="J103" s="13">
+        <v>1099</v>
+      </c>
+      <c r="P103" s="13">
+        <v>11051</v>
+      </c>
+      <c r="Q103" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="R103">
+        <v>3</v>
+      </c>
+      <c r="S103" t="s">
+        <v>58</v>
+      </c>
+      <c r="T103">
+        <v>120</v>
+      </c>
+      <c r="U103">
+        <v>60</v>
+      </c>
+      <c r="V103">
+        <v>120</v>
+      </c>
+      <c r="W103">
+        <v>60</v>
+      </c>
+      <c r="X103">
+        <v>50</v>
+      </c>
+      <c r="Z103" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" ht="15.5" spans="10:26">
+      <c r="J104" s="13">
+        <v>1100</v>
+      </c>
+      <c r="P104" s="6">
+        <v>11052</v>
+      </c>
+      <c r="Q104" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="R104">
+        <v>3</v>
+      </c>
+      <c r="S104" t="s">
+        <v>58</v>
+      </c>
+      <c r="T104">
+        <v>120</v>
+      </c>
+      <c r="U104">
+        <v>60</v>
+      </c>
+      <c r="V104">
+        <v>120</v>
+      </c>
+      <c r="W104">
+        <v>60</v>
+      </c>
+      <c r="X104">
+        <v>50</v>
+      </c>
+      <c r="Z104" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" ht="15.5" spans="10:26">
+      <c r="J105" s="13">
+        <v>1101</v>
+      </c>
+      <c r="P105" s="13">
+        <v>11053</v>
+      </c>
+      <c r="Q105" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="R105">
+        <v>3</v>
+      </c>
+      <c r="S105" t="s">
+        <v>58</v>
+      </c>
+      <c r="T105">
+        <v>120</v>
+      </c>
+      <c r="U105">
+        <v>60</v>
+      </c>
+      <c r="V105">
+        <v>120</v>
+      </c>
+      <c r="W105">
+        <v>60</v>
+      </c>
+      <c r="X105">
+        <v>50</v>
+      </c>
+      <c r="Z105" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" ht="15.5" spans="10:26">
+      <c r="J106" s="13">
+        <v>1102</v>
+      </c>
+      <c r="P106" s="6">
+        <v>11054</v>
+      </c>
+      <c r="Q106" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="R106">
+        <v>3</v>
+      </c>
+      <c r="S106" t="s">
+        <v>58</v>
+      </c>
+      <c r="T106">
+        <v>120</v>
+      </c>
+      <c r="U106">
+        <v>60</v>
+      </c>
+      <c r="V106">
+        <v>120</v>
+      </c>
+      <c r="W106">
+        <v>60</v>
+      </c>
+      <c r="X106">
+        <v>50</v>
+      </c>
+      <c r="Z106" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" ht="15.5" spans="10:26">
+      <c r="J107" s="13">
+        <v>1103</v>
+      </c>
+      <c r="P107" s="13">
+        <v>11055</v>
+      </c>
+      <c r="Q107" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="R107">
+        <v>3</v>
+      </c>
+      <c r="S107" t="s">
+        <v>58</v>
+      </c>
+      <c r="T107">
+        <v>120</v>
+      </c>
+      <c r="U107">
+        <v>60</v>
+      </c>
+      <c r="V107">
+        <v>120</v>
+      </c>
+      <c r="W107">
+        <v>60</v>
+      </c>
+      <c r="X107">
+        <v>50</v>
+      </c>
+      <c r="Z107" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" ht="15.5" spans="10:26">
+      <c r="J108" s="13">
+        <v>1104</v>
+      </c>
+      <c r="P108" s="6">
+        <v>11056</v>
+      </c>
+      <c r="Q108" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="R108">
+        <v>3</v>
+      </c>
+      <c r="S108" t="s">
+        <v>58</v>
+      </c>
+      <c r="T108">
+        <v>120</v>
+      </c>
+      <c r="U108">
+        <v>60</v>
+      </c>
+      <c r="V108">
+        <v>120</v>
+      </c>
+      <c r="W108">
+        <v>60</v>
+      </c>
+      <c r="X108">
+        <v>50</v>
+      </c>
+      <c r="Z108" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" ht="15.5" spans="10:26">
+      <c r="J109" s="13">
+        <v>1105</v>
+      </c>
+      <c r="P109" s="13">
+        <v>11057</v>
+      </c>
+      <c r="Q109" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="R109">
+        <v>3</v>
+      </c>
+      <c r="S109" t="s">
+        <v>58</v>
+      </c>
+      <c r="T109">
+        <v>120</v>
+      </c>
+      <c r="U109">
+        <v>60</v>
+      </c>
+      <c r="V109">
+        <v>120</v>
+      </c>
+      <c r="W109">
+        <v>60</v>
+      </c>
+      <c r="X109">
+        <v>50</v>
+      </c>
+      <c r="Z109" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" ht="15.5" spans="10:26">
+      <c r="J110" s="13">
+        <v>1106</v>
+      </c>
+      <c r="P110" s="6">
+        <v>11058</v>
+      </c>
+      <c r="Q110" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="R110">
+        <v>3</v>
+      </c>
+      <c r="S110" t="s">
+        <v>58</v>
+      </c>
+      <c r="T110">
+        <v>120</v>
+      </c>
+      <c r="U110">
+        <v>60</v>
+      </c>
+      <c r="V110">
+        <v>120</v>
+      </c>
+      <c r="W110">
+        <v>60</v>
+      </c>
+      <c r="X110">
+        <v>50</v>
+      </c>
+      <c r="Z110" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" ht="15.5" spans="10:26">
+      <c r="J111" s="13">
+        <v>1107</v>
+      </c>
+      <c r="P111" s="13">
+        <v>11059</v>
+      </c>
+      <c r="Q111" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="R111">
+        <v>3</v>
+      </c>
+      <c r="S111" t="s">
+        <v>58</v>
+      </c>
+      <c r="T111">
+        <v>120</v>
+      </c>
+      <c r="U111">
+        <v>60</v>
+      </c>
+      <c r="V111">
+        <v>120</v>
+      </c>
+      <c r="W111">
+        <v>60</v>
+      </c>
+      <c r="X111">
+        <v>50</v>
+      </c>
+      <c r="Z111" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" ht="15.5" spans="10:26">
+      <c r="J112" s="13">
+        <v>1108</v>
+      </c>
+      <c r="P112" s="6">
+        <v>11060</v>
+      </c>
+      <c r="Q112" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="R112">
+        <v>3</v>
+      </c>
+      <c r="S112" t="s">
+        <v>58</v>
+      </c>
+      <c r="T112">
+        <v>120</v>
+      </c>
+      <c r="U112">
+        <v>60</v>
+      </c>
+      <c r="V112">
+        <v>120</v>
+      </c>
+      <c r="W112">
+        <v>60</v>
+      </c>
+      <c r="X112">
+        <v>50</v>
+      </c>
+      <c r="Z112" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" ht="15.5" spans="10:26">
+      <c r="J113" s="13">
+        <v>1109</v>
+      </c>
+      <c r="P113" s="13">
+        <v>11061</v>
+      </c>
+      <c r="Q113" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="R113">
+        <v>3</v>
+      </c>
+      <c r="S113" t="s">
+        <v>58</v>
+      </c>
+      <c r="T113">
+        <v>120</v>
+      </c>
+      <c r="U113">
+        <v>60</v>
+      </c>
+      <c r="V113">
+        <v>120</v>
+      </c>
+      <c r="W113">
+        <v>60</v>
+      </c>
+      <c r="X113">
+        <v>50</v>
+      </c>
+      <c r="Z113" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" ht="15.5" spans="10:26">
+      <c r="J114" s="13">
+        <v>1110</v>
+      </c>
+      <c r="P114" s="6">
+        <v>11062</v>
+      </c>
+      <c r="Q114" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="R114">
+        <v>3</v>
+      </c>
+      <c r="S114" t="s">
+        <v>58</v>
+      </c>
+      <c r="T114">
+        <v>120</v>
+      </c>
+      <c r="U114">
+        <v>60</v>
+      </c>
+      <c r="V114">
+        <v>120</v>
+      </c>
+      <c r="W114">
+        <v>60</v>
+      </c>
+      <c r="X114">
+        <v>50</v>
+      </c>
+      <c r="Z114" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" ht="15.5" spans="10:26">
+      <c r="J115" s="13">
+        <v>1111</v>
+      </c>
+      <c r="P115" s="13">
+        <v>11063</v>
+      </c>
+      <c r="Q115" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="R115">
+        <v>3</v>
+      </c>
+      <c r="S115" t="s">
+        <v>58</v>
+      </c>
+      <c r="T115">
+        <v>120</v>
+      </c>
+      <c r="U115">
+        <v>60</v>
+      </c>
+      <c r="V115">
+        <v>120</v>
+      </c>
+      <c r="W115">
+        <v>60</v>
+      </c>
+      <c r="X115">
+        <v>50</v>
+      </c>
+      <c r="Z115" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" ht="15.5" spans="10:26">
+      <c r="J116" s="13">
+        <v>1112</v>
+      </c>
+      <c r="P116" s="6">
+        <v>11064</v>
+      </c>
+      <c r="Q116" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="R116">
+        <v>3</v>
+      </c>
+      <c r="S116" t="s">
+        <v>58</v>
+      </c>
+      <c r="T116">
+        <v>120</v>
+      </c>
+      <c r="U116">
+        <v>60</v>
+      </c>
+      <c r="V116">
+        <v>120</v>
+      </c>
+      <c r="W116">
+        <v>60</v>
+      </c>
+      <c r="X116">
+        <v>50</v>
+      </c>
+      <c r="Z116" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" ht="15.5" spans="10:26">
+      <c r="J117" s="13">
+        <v>1113</v>
+      </c>
+      <c r="P117" s="13">
+        <v>11065</v>
+      </c>
+      <c r="Q117" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="R117">
+        <v>3</v>
+      </c>
+      <c r="S117" t="s">
+        <v>58</v>
+      </c>
+      <c r="T117">
+        <v>120</v>
+      </c>
+      <c r="U117">
+        <v>60</v>
+      </c>
+      <c r="V117">
+        <v>120</v>
+      </c>
+      <c r="W117">
+        <v>60</v>
+      </c>
+      <c r="X117">
+        <v>50</v>
+      </c>
+      <c r="Z117" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" ht="15.5" spans="10:26">
+      <c r="J118" s="13">
+        <v>1114</v>
+      </c>
+      <c r="P118" s="6">
+        <v>11066</v>
+      </c>
+      <c r="Q118" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="R118">
+        <v>3</v>
+      </c>
+      <c r="S118" t="s">
+        <v>58</v>
+      </c>
+      <c r="T118">
+        <v>120</v>
+      </c>
+      <c r="U118">
+        <v>60</v>
+      </c>
+      <c r="V118">
+        <v>120</v>
+      </c>
+      <c r="W118">
+        <v>60</v>
+      </c>
+      <c r="X118">
+        <v>50</v>
+      </c>
+      <c r="Z118" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" ht="15.5" spans="10:26">
+      <c r="J119" s="13">
+        <v>1115</v>
+      </c>
+      <c r="P119" s="13">
+        <v>11067</v>
+      </c>
+      <c r="Q119" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="R119">
+        <v>3</v>
+      </c>
+      <c r="S119" t="s">
+        <v>58</v>
+      </c>
+      <c r="T119">
+        <v>120</v>
+      </c>
+      <c r="U119">
+        <v>60</v>
+      </c>
+      <c r="V119">
+        <v>120</v>
+      </c>
+      <c r="W119">
+        <v>60</v>
+      </c>
+      <c r="X119">
+        <v>50</v>
+      </c>
+      <c r="Z119" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" ht="15.5" spans="10:26">
+      <c r="J120" s="13">
+        <v>1116</v>
+      </c>
+      <c r="P120" s="6">
+        <v>11068</v>
+      </c>
+      <c r="Q120" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="R120">
+        <v>3</v>
+      </c>
+      <c r="S120" t="s">
+        <v>58</v>
+      </c>
+      <c r="T120">
+        <v>120</v>
+      </c>
+      <c r="U120">
+        <v>60</v>
+      </c>
+      <c r="V120">
+        <v>120</v>
+      </c>
+      <c r="W120">
+        <v>60</v>
+      </c>
+      <c r="X120">
+        <v>50</v>
+      </c>
+      <c r="Z120" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" ht="15.5" spans="10:26">
+      <c r="J121" s="13">
+        <v>1117</v>
+      </c>
+      <c r="P121" s="13">
+        <v>11069</v>
+      </c>
+      <c r="Q121" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="R121">
+        <v>3</v>
+      </c>
+      <c r="S121" t="s">
+        <v>58</v>
+      </c>
+      <c r="T121">
+        <v>120</v>
+      </c>
+      <c r="U121">
+        <v>60</v>
+      </c>
+      <c r="V121">
+        <v>120</v>
+      </c>
+      <c r="W121">
+        <v>60</v>
+      </c>
+      <c r="X121">
+        <v>50</v>
+      </c>
+      <c r="Z121" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" ht="15.5" spans="10:26">
+      <c r="J122" s="13">
+        <v>1118</v>
+      </c>
+      <c r="P122" s="6">
+        <v>11070</v>
+      </c>
+      <c r="Q122" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="R122">
+        <v>3</v>
+      </c>
+      <c r="S122" t="s">
+        <v>58</v>
+      </c>
+      <c r="T122">
+        <v>120</v>
+      </c>
+      <c r="U122">
+        <v>60</v>
+      </c>
+      <c r="V122">
+        <v>120</v>
+      </c>
+      <c r="W122">
+        <v>60</v>
+      </c>
+      <c r="X122">
+        <v>50</v>
+      </c>
+      <c r="Z122" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" ht="15.5" spans="10:26">
+      <c r="J123" s="13">
+        <v>1119</v>
+      </c>
+      <c r="P123" s="13">
+        <v>11071</v>
+      </c>
+      <c r="Q123" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="R123">
+        <v>3</v>
+      </c>
+      <c r="S123" t="s">
+        <v>58</v>
+      </c>
+      <c r="T123">
+        <v>120</v>
+      </c>
+      <c r="U123">
+        <v>60</v>
+      </c>
+      <c r="V123">
+        <v>120</v>
+      </c>
+      <c r="W123">
+        <v>60</v>
+      </c>
+      <c r="X123">
+        <v>50</v>
+      </c>
+      <c r="Z123" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" ht="15.5" spans="10:26">
+      <c r="J124" s="13">
+        <v>1120</v>
+      </c>
+      <c r="P124" s="6">
+        <v>11072</v>
+      </c>
+      <c r="Q124" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="R124">
+        <v>3</v>
+      </c>
+      <c r="S124" t="s">
+        <v>58</v>
+      </c>
+      <c r="T124">
+        <v>120</v>
+      </c>
+      <c r="U124">
+        <v>60</v>
+      </c>
+      <c r="V124">
+        <v>120</v>
+      </c>
+      <c r="W124">
+        <v>60</v>
+      </c>
+      <c r="X124">
+        <v>50</v>
+      </c>
+      <c r="Z124" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" ht="15.5" spans="10:26">
+      <c r="J125" s="13">
+        <v>1121</v>
+      </c>
+      <c r="P125" s="13">
+        <v>11073</v>
+      </c>
+      <c r="Q125" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="R125">
+        <v>3</v>
+      </c>
+      <c r="S125" t="s">
+        <v>58</v>
+      </c>
+      <c r="T125">
+        <v>120</v>
+      </c>
+      <c r="U125">
+        <v>60</v>
+      </c>
+      <c r="V125">
+        <v>120</v>
+      </c>
+      <c r="W125">
+        <v>60</v>
+      </c>
+      <c r="X125">
+        <v>50</v>
+      </c>
+      <c r="Z125" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" ht="15.5" spans="10:26">
+      <c r="J126" s="13">
+        <v>1122</v>
+      </c>
+      <c r="P126" s="6">
+        <v>11074</v>
+      </c>
+      <c r="Q126" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="R126">
+        <v>3</v>
+      </c>
+      <c r="S126" t="s">
+        <v>58</v>
+      </c>
+      <c r="T126">
+        <v>120</v>
+      </c>
+      <c r="U126">
+        <v>60</v>
+      </c>
+      <c r="V126">
+        <v>120</v>
+      </c>
+      <c r="W126">
+        <v>60</v>
+      </c>
+      <c r="X126">
+        <v>50</v>
+      </c>
+      <c r="Z126" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" ht="15.5" spans="10:26">
+      <c r="J127" s="13">
+        <v>1123</v>
+      </c>
+      <c r="P127" s="13">
+        <v>11075</v>
+      </c>
+      <c r="Q127" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="R127">
+        <v>3</v>
+      </c>
+      <c r="S127" t="s">
+        <v>58</v>
+      </c>
+      <c r="T127">
+        <v>120</v>
+      </c>
+      <c r="U127">
+        <v>60</v>
+      </c>
+      <c r="V127">
+        <v>120</v>
+      </c>
+      <c r="W127">
+        <v>60</v>
+      </c>
+      <c r="X127">
+        <v>50</v>
+      </c>
+      <c r="Z127" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" ht="15.5" spans="10:26">
+      <c r="J128" s="13">
+        <v>1124</v>
+      </c>
+      <c r="P128" s="6">
+        <v>11076</v>
+      </c>
+      <c r="Q128" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="R128">
+        <v>3</v>
+      </c>
+      <c r="S128" t="s">
+        <v>58</v>
+      </c>
+      <c r="T128">
+        <v>120</v>
+      </c>
+      <c r="U128">
+        <v>60</v>
+      </c>
+      <c r="V128">
+        <v>120</v>
+      </c>
+      <c r="W128">
+        <v>60</v>
+      </c>
+      <c r="X128">
+        <v>50</v>
+      </c>
+      <c r="Z128" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" ht="15.5" spans="10:26">
+      <c r="J129" s="13">
+        <v>1125</v>
+      </c>
+      <c r="P129" s="13">
+        <v>11077</v>
+      </c>
+      <c r="Q129" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="R129">
+        <v>3</v>
+      </c>
+      <c r="S129" t="s">
+        <v>58</v>
+      </c>
+      <c r="T129">
+        <v>120</v>
+      </c>
+      <c r="U129">
+        <v>60</v>
+      </c>
+      <c r="V129">
+        <v>120</v>
+      </c>
+      <c r="W129">
+        <v>60</v>
+      </c>
+      <c r="X129">
+        <v>50</v>
+      </c>
+      <c r="Z129" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" ht="15.5" spans="10:26">
+      <c r="J130" s="13">
+        <v>1126</v>
+      </c>
+      <c r="P130" s="6">
+        <v>11078</v>
+      </c>
+      <c r="Q130" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="R130">
+        <v>3</v>
+      </c>
+      <c r="S130" t="s">
+        <v>58</v>
+      </c>
+      <c r="T130">
+        <v>120</v>
+      </c>
+      <c r="U130">
+        <v>60</v>
+      </c>
+      <c r="V130">
+        <v>120</v>
+      </c>
+      <c r="W130">
+        <v>60</v>
+      </c>
+      <c r="X130">
+        <v>50</v>
+      </c>
+      <c r="Z130" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" ht="15.5" spans="10:26">
+      <c r="J131" s="13">
+        <v>1127</v>
+      </c>
+      <c r="P131" s="13">
+        <v>11079</v>
+      </c>
+      <c r="Q131" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="R131">
+        <v>3</v>
+      </c>
+      <c r="S131" t="s">
+        <v>58</v>
+      </c>
+      <c r="T131">
+        <v>120</v>
+      </c>
+      <c r="U131">
+        <v>60</v>
+      </c>
+      <c r="V131">
+        <v>120</v>
+      </c>
+      <c r="W131">
+        <v>60</v>
+      </c>
+      <c r="X131">
+        <v>50</v>
+      </c>
+      <c r="Z131" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" ht="15.5" spans="10:26">
+      <c r="J132" s="13">
+        <v>1128</v>
+      </c>
+      <c r="P132" s="6">
+        <v>11080</v>
+      </c>
+      <c r="Q132" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="R132">
+        <v>3</v>
+      </c>
+      <c r="S132" t="s">
+        <v>58</v>
+      </c>
+      <c r="T132">
+        <v>120</v>
+      </c>
+      <c r="U132">
+        <v>60</v>
+      </c>
+      <c r="V132">
+        <v>120</v>
+      </c>
+      <c r="W132">
+        <v>60</v>
+      </c>
+      <c r="X132">
+        <v>50</v>
+      </c>
+      <c r="Z132" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" ht="15.5" spans="10:26">
+      <c r="J133" s="13">
+        <v>1129</v>
+      </c>
+      <c r="P133" s="13">
+        <v>11081</v>
+      </c>
+      <c r="Q133" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="R133">
+        <v>3</v>
+      </c>
+      <c r="S133" t="s">
+        <v>58</v>
+      </c>
+      <c r="T133">
+        <v>120</v>
+      </c>
+      <c r="U133">
+        <v>60</v>
+      </c>
+      <c r="V133">
+        <v>120</v>
+      </c>
+      <c r="W133">
+        <v>60</v>
+      </c>
+      <c r="X133">
+        <v>50</v>
+      </c>
+      <c r="Z133" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" ht="15.5" spans="10:26">
+      <c r="J134" s="13">
+        <v>1130</v>
+      </c>
+      <c r="P134" s="6">
+        <v>11082</v>
+      </c>
+      <c r="Q134" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="R134">
+        <v>3</v>
+      </c>
+      <c r="S134" t="s">
+        <v>58</v>
+      </c>
+      <c r="T134">
+        <v>120</v>
+      </c>
+      <c r="U134">
+        <v>60</v>
+      </c>
+      <c r="V134">
+        <v>120</v>
+      </c>
+      <c r="W134">
+        <v>60</v>
+      </c>
+      <c r="X134">
+        <v>50</v>
+      </c>
+      <c r="Z134" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" ht="15.5" spans="10:26">
+      <c r="J135" s="13">
+        <v>1131</v>
+      </c>
+      <c r="P135" s="13">
+        <v>11083</v>
+      </c>
+      <c r="Q135" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="R135">
+        <v>3</v>
+      </c>
+      <c r="S135" t="s">
+        <v>58</v>
+      </c>
+      <c r="T135">
+        <v>120</v>
+      </c>
+      <c r="U135">
+        <v>60</v>
+      </c>
+      <c r="V135">
+        <v>120</v>
+      </c>
+      <c r="W135">
+        <v>60</v>
+      </c>
+      <c r="X135">
+        <v>50</v>
+      </c>
+      <c r="Z135" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" ht="15.5" spans="10:26">
+      <c r="J136" s="13">
+        <v>1132</v>
+      </c>
+      <c r="P136" s="6">
+        <v>11084</v>
+      </c>
+      <c r="Q136" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="R136">
+        <v>3</v>
+      </c>
+      <c r="S136" t="s">
+        <v>58</v>
+      </c>
+      <c r="T136">
+        <v>120</v>
+      </c>
+      <c r="U136">
+        <v>60</v>
+      </c>
+      <c r="V136">
+        <v>120</v>
+      </c>
+      <c r="W136">
+        <v>60</v>
+      </c>
+      <c r="X136">
+        <v>50</v>
+      </c>
+      <c r="Z136" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" ht="15.5" spans="10:26">
+      <c r="J137" s="13">
+        <v>1133</v>
+      </c>
+      <c r="P137" s="13">
+        <v>11085</v>
+      </c>
+      <c r="Q137" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="R137">
+        <v>3</v>
+      </c>
+      <c r="S137" t="s">
+        <v>58</v>
+      </c>
+      <c r="T137">
+        <v>120</v>
+      </c>
+      <c r="U137">
+        <v>60</v>
+      </c>
+      <c r="V137">
+        <v>120</v>
+      </c>
+      <c r="W137">
+        <v>60</v>
+      </c>
+      <c r="X137">
+        <v>50</v>
+      </c>
+      <c r="Z137" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" ht="15.5" spans="10:26">
+      <c r="J138" s="13">
+        <v>1134</v>
+      </c>
+      <c r="P138" s="6">
+        <v>11086</v>
+      </c>
+      <c r="Q138" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="R138">
+        <v>3</v>
+      </c>
+      <c r="S138" t="s">
+        <v>58</v>
+      </c>
+      <c r="T138">
+        <v>120</v>
+      </c>
+      <c r="U138">
+        <v>60</v>
+      </c>
+      <c r="V138">
+        <v>120</v>
+      </c>
+      <c r="W138">
+        <v>60</v>
+      </c>
+      <c r="X138">
+        <v>50</v>
+      </c>
+      <c r="Z138" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" ht="15.5" spans="10:26">
+      <c r="J139" s="13">
+        <v>1135</v>
+      </c>
+      <c r="P139" s="13">
+        <v>11087</v>
+      </c>
+      <c r="Q139" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="R139">
+        <v>3</v>
+      </c>
+      <c r="S139" t="s">
+        <v>58</v>
+      </c>
+      <c r="T139">
+        <v>120</v>
+      </c>
+      <c r="U139">
+        <v>60</v>
+      </c>
+      <c r="V139">
+        <v>120</v>
+      </c>
+      <c r="W139">
+        <v>60</v>
+      </c>
+      <c r="X139">
+        <v>50</v>
+      </c>
+      <c r="Z139" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" ht="15.5" spans="10:26">
+      <c r="J140" s="13">
+        <v>1136</v>
+      </c>
+      <c r="P140" s="6">
+        <v>11088</v>
+      </c>
+      <c r="Q140" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="R140">
+        <v>3</v>
+      </c>
+      <c r="S140" t="s">
+        <v>58</v>
+      </c>
+      <c r="T140">
+        <v>120</v>
+      </c>
+      <c r="U140">
+        <v>60</v>
+      </c>
+      <c r="V140">
+        <v>120</v>
+      </c>
+      <c r="W140">
+        <v>60</v>
+      </c>
+      <c r="X140">
+        <v>50</v>
+      </c>
+      <c r="Z140" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" ht="15.5" spans="10:26">
+      <c r="J141" s="13">
+        <v>1137</v>
+      </c>
+      <c r="P141" s="13">
+        <v>11089</v>
+      </c>
+      <c r="Q141" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="R141">
+        <v>3</v>
+      </c>
+      <c r="S141" t="s">
+        <v>58</v>
+      </c>
+      <c r="T141">
+        <v>120</v>
+      </c>
+      <c r="U141">
+        <v>60</v>
+      </c>
+      <c r="V141">
+        <v>120</v>
+      </c>
+      <c r="W141">
+        <v>60</v>
+      </c>
+      <c r="X141">
+        <v>50</v>
+      </c>
+      <c r="Z141" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" ht="15.5" spans="10:26">
+      <c r="J142" s="13">
+        <v>1138</v>
+      </c>
+      <c r="P142" s="6">
+        <v>11090</v>
+      </c>
+      <c r="Q142" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="R142">
+        <v>3</v>
+      </c>
+      <c r="S142" t="s">
+        <v>58</v>
+      </c>
+      <c r="T142">
+        <v>120</v>
+      </c>
+      <c r="U142">
+        <v>60</v>
+      </c>
+      <c r="V142">
+        <v>120</v>
+      </c>
+      <c r="W142">
+        <v>60</v>
+      </c>
+      <c r="X142">
+        <v>50</v>
+      </c>
+      <c r="Z142" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" ht="15.5" spans="10:26">
+      <c r="J143" s="13">
+        <v>1139</v>
+      </c>
+      <c r="P143" s="13">
+        <v>11091</v>
+      </c>
+      <c r="Q143" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="R143">
+        <v>3</v>
+      </c>
+      <c r="S143" t="s">
+        <v>58</v>
+      </c>
+      <c r="T143">
+        <v>120</v>
+      </c>
+      <c r="U143">
+        <v>60</v>
+      </c>
+      <c r="V143">
+        <v>120</v>
+      </c>
+      <c r="W143">
+        <v>60</v>
+      </c>
+      <c r="X143">
+        <v>50</v>
+      </c>
+      <c r="Z143" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" ht="15.5" spans="10:26">
+      <c r="J144" s="13">
+        <v>1140</v>
+      </c>
+      <c r="P144" s="6">
+        <v>11092</v>
+      </c>
+      <c r="Q144" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="R144">
+        <v>3</v>
+      </c>
+      <c r="S144" t="s">
+        <v>58</v>
+      </c>
+      <c r="T144">
+        <v>120</v>
+      </c>
+      <c r="U144">
+        <v>60</v>
+      </c>
+      <c r="V144">
+        <v>120</v>
+      </c>
+      <c r="W144">
+        <v>60</v>
+      </c>
+      <c r="X144">
+        <v>50</v>
+      </c>
+      <c r="Z144" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" ht="15.5" spans="10:26">
+      <c r="J145" s="13">
+        <v>1141</v>
+      </c>
+      <c r="P145" s="13">
+        <v>11093</v>
+      </c>
+      <c r="Q145" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="R145">
+        <v>3</v>
+      </c>
+      <c r="S145" t="s">
+        <v>58</v>
+      </c>
+      <c r="T145">
+        <v>120</v>
+      </c>
+      <c r="U145">
+        <v>60</v>
+      </c>
+      <c r="V145">
+        <v>120</v>
+      </c>
+      <c r="W145">
+        <v>60</v>
+      </c>
+      <c r="X145">
+        <v>50</v>
+      </c>
+      <c r="Z145" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" ht="15.5" spans="10:26">
+      <c r="J146" s="13">
+        <v>1142</v>
+      </c>
+      <c r="P146" s="6">
+        <v>11094</v>
+      </c>
+      <c r="Q146" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="R146">
+        <v>3</v>
+      </c>
+      <c r="S146" t="s">
+        <v>58</v>
+      </c>
+      <c r="T146">
+        <v>120</v>
+      </c>
+      <c r="U146">
+        <v>60</v>
+      </c>
+      <c r="V146">
+        <v>120</v>
+      </c>
+      <c r="W146">
+        <v>60</v>
+      </c>
+      <c r="X146">
+        <v>50</v>
+      </c>
+      <c r="Z146" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" ht="15.5" spans="10:26">
+      <c r="J147" s="13">
+        <v>1143</v>
+      </c>
+      <c r="P147" s="13">
+        <v>11095</v>
+      </c>
+      <c r="Q147" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="R147">
+        <v>3</v>
+      </c>
+      <c r="S147" t="s">
+        <v>58</v>
+      </c>
+      <c r="T147">
+        <v>120</v>
+      </c>
+      <c r="U147">
+        <v>60</v>
+      </c>
+      <c r="V147">
+        <v>120</v>
+      </c>
+      <c r="W147">
+        <v>60</v>
+      </c>
+      <c r="X147">
+        <v>50</v>
+      </c>
+      <c r="Z147" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" ht="15.5" spans="10:26">
+      <c r="J148" s="13">
+        <v>1144</v>
+      </c>
+      <c r="P148" s="6">
+        <v>11096</v>
+      </c>
+      <c r="Q148" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="R148">
+        <v>3</v>
+      </c>
+      <c r="S148" t="s">
+        <v>58</v>
+      </c>
+      <c r="T148">
+        <v>120</v>
+      </c>
+      <c r="U148">
+        <v>60</v>
+      </c>
+      <c r="V148">
+        <v>120</v>
+      </c>
+      <c r="W148">
+        <v>60</v>
+      </c>
+      <c r="X148">
+        <v>50</v>
+      </c>
+      <c r="Z148" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" ht="15.5" spans="10:26">
+      <c r="J149" s="13">
+        <v>1145</v>
+      </c>
+      <c r="P149" s="13">
+        <v>11097</v>
+      </c>
+      <c r="Q149" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="R149">
+        <v>3</v>
+      </c>
+      <c r="S149" t="s">
+        <v>58</v>
+      </c>
+      <c r="T149">
+        <v>120</v>
+      </c>
+      <c r="U149">
+        <v>60</v>
+      </c>
+      <c r="V149">
+        <v>120</v>
+      </c>
+      <c r="W149">
+        <v>60</v>
+      </c>
+      <c r="X149">
+        <v>50</v>
+      </c>
+      <c r="Z149" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" ht="15.5" spans="10:26">
+      <c r="J150" s="13">
+        <v>1146</v>
+      </c>
+      <c r="P150" s="6">
+        <v>11098</v>
+      </c>
+      <c r="Q150" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="R150">
+        <v>3</v>
+      </c>
+      <c r="S150" t="s">
+        <v>58</v>
+      </c>
+      <c r="T150">
+        <v>120</v>
+      </c>
+      <c r="U150">
+        <v>60</v>
+      </c>
+      <c r="V150">
+        <v>120</v>
+      </c>
+      <c r="W150">
+        <v>60</v>
+      </c>
+      <c r="X150">
+        <v>50</v>
+      </c>
+      <c r="Z150" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" ht="15.5" spans="10:26">
+      <c r="J151" s="13">
+        <v>1147</v>
+      </c>
+      <c r="P151" s="13">
+        <v>11099</v>
+      </c>
+      <c r="Q151" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="R151">
+        <v>3</v>
+      </c>
+      <c r="S151" t="s">
+        <v>58</v>
+      </c>
+      <c r="T151">
+        <v>120</v>
+      </c>
+      <c r="U151">
+        <v>60</v>
+      </c>
+      <c r="V151">
+        <v>120</v>
+      </c>
+      <c r="W151">
+        <v>60</v>
+      </c>
+      <c r="X151">
+        <v>50</v>
+      </c>
+      <c r="Z151" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" ht="15.5" spans="10:26">
+      <c r="J152" s="13">
+        <v>1148</v>
+      </c>
+      <c r="P152" s="6">
+        <v>11100</v>
+      </c>
+      <c r="Q152" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="R152">
+        <v>3</v>
+      </c>
+      <c r="S152" t="s">
+        <v>58</v>
+      </c>
+      <c r="T152">
+        <v>120</v>
+      </c>
+      <c r="U152">
+        <v>60</v>
+      </c>
+      <c r="V152">
+        <v>120</v>
+      </c>
+      <c r="W152">
+        <v>60</v>
+      </c>
+      <c r="X152">
+        <v>50</v>
+      </c>
+      <c r="Z152" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" ht="15.5" spans="10:26">
+      <c r="J153" s="13">
+        <v>1149</v>
+      </c>
+      <c r="P153" s="13">
+        <v>11101</v>
+      </c>
+      <c r="Q153" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="R153">
+        <v>3</v>
+      </c>
+      <c r="S153" t="s">
+        <v>58</v>
+      </c>
+      <c r="T153">
+        <v>120</v>
+      </c>
+      <c r="U153">
+        <v>60</v>
+      </c>
+      <c r="V153">
+        <v>120</v>
+      </c>
+      <c r="W153">
+        <v>60</v>
+      </c>
+      <c r="X153">
+        <v>50</v>
+      </c>
+      <c r="Z153" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" ht="15.5" spans="10:26">
+      <c r="J154" s="13">
+        <v>1150</v>
+      </c>
+      <c r="P154" s="6">
+        <v>11102</v>
+      </c>
+      <c r="Q154" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="R154">
+        <v>3</v>
+      </c>
+      <c r="S154" t="s">
+        <v>58</v>
+      </c>
+      <c r="T154">
+        <v>120</v>
+      </c>
+      <c r="U154">
+        <v>60</v>
+      </c>
+      <c r="V154">
+        <v>120</v>
+      </c>
+      <c r="W154">
+        <v>60</v>
+      </c>
+      <c r="X154">
+        <v>50</v>
+      </c>
+      <c r="Z154" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" ht="15.5" spans="10:26">
+      <c r="J155" s="13">
+        <v>1151</v>
+      </c>
+      <c r="P155" s="13">
+        <v>11103</v>
+      </c>
+      <c r="Q155" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="R155">
+        <v>3</v>
+      </c>
+      <c r="S155" t="s">
+        <v>58</v>
+      </c>
+      <c r="T155">
+        <v>120</v>
+      </c>
+      <c r="U155">
+        <v>60</v>
+      </c>
+      <c r="V155">
+        <v>120</v>
+      </c>
+      <c r="W155">
+        <v>60</v>
+      </c>
+      <c r="X155">
+        <v>50</v>
+      </c>
+      <c r="Z155" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" ht="15.5" spans="10:26">
+      <c r="J156" s="13">
+        <v>1152</v>
+      </c>
+      <c r="P156" s="6">
+        <v>11104</v>
+      </c>
+      <c r="Q156" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="R156">
+        <v>3</v>
+      </c>
+      <c r="S156" t="s">
+        <v>58</v>
+      </c>
+      <c r="T156">
+        <v>120</v>
+      </c>
+      <c r="U156">
+        <v>60</v>
+      </c>
+      <c r="V156">
+        <v>120</v>
+      </c>
+      <c r="W156">
+        <v>60</v>
+      </c>
+      <c r="X156">
+        <v>50</v>
+      </c>
+      <c r="Z156" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" ht="15.5" spans="10:26">
+      <c r="J157" s="13">
+        <v>1153</v>
+      </c>
+      <c r="P157" s="13">
+        <v>11105</v>
+      </c>
+      <c r="Q157" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="R157">
+        <v>3</v>
+      </c>
+      <c r="S157" t="s">
+        <v>58</v>
+      </c>
+      <c r="T157">
+        <v>120</v>
+      </c>
+      <c r="U157">
+        <v>60</v>
+      </c>
+      <c r="V157">
+        <v>120</v>
+      </c>
+      <c r="W157">
+        <v>60</v>
+      </c>
+      <c r="X157">
+        <v>50</v>
+      </c>
+      <c r="Z157" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" ht="15.5" spans="10:26">
+      <c r="J158" s="13">
+        <v>1154</v>
+      </c>
+      <c r="P158" s="6">
+        <v>11106</v>
+      </c>
+      <c r="Q158" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="R158">
+        <v>3</v>
+      </c>
+      <c r="S158" t="s">
+        <v>58</v>
+      </c>
+      <c r="T158">
+        <v>120</v>
+      </c>
+      <c r="U158">
+        <v>60</v>
+      </c>
+      <c r="V158">
+        <v>120</v>
+      </c>
+      <c r="W158">
+        <v>60</v>
+      </c>
+      <c r="X158">
+        <v>50</v>
+      </c>
+      <c r="Z158" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" ht="15.5" spans="10:26">
+      <c r="J159" s="13">
+        <v>1155</v>
+      </c>
+      <c r="P159" s="13">
+        <v>11107</v>
+      </c>
+      <c r="Q159" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="R159">
+        <v>3</v>
+      </c>
+      <c r="S159" t="s">
+        <v>58</v>
+      </c>
+      <c r="T159">
+        <v>120</v>
+      </c>
+      <c r="U159">
+        <v>60</v>
+      </c>
+      <c r="V159">
+        <v>120</v>
+      </c>
+      <c r="W159">
+        <v>60</v>
+      </c>
+      <c r="X159">
+        <v>50</v>
+      </c>
+      <c r="Z159" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" ht="15.5" spans="10:26">
+      <c r="J160" s="13">
+        <v>1156</v>
+      </c>
+      <c r="P160" s="6">
+        <v>11108</v>
+      </c>
+      <c r="Q160" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="R160">
+        <v>3</v>
+      </c>
+      <c r="S160" t="s">
+        <v>58</v>
+      </c>
+      <c r="T160">
+        <v>120</v>
+      </c>
+      <c r="U160">
+        <v>60</v>
+      </c>
+      <c r="V160">
+        <v>120</v>
+      </c>
+      <c r="W160">
+        <v>60</v>
+      </c>
+      <c r="X160">
+        <v>50</v>
+      </c>
+      <c r="Z160" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" ht="15.5" spans="10:26">
+      <c r="J161" s="13">
+        <v>1157</v>
+      </c>
+      <c r="P161" s="13">
+        <v>11109</v>
+      </c>
+      <c r="Q161" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="R161">
+        <v>3</v>
+      </c>
+      <c r="S161" t="s">
+        <v>58</v>
+      </c>
+      <c r="T161">
+        <v>120</v>
+      </c>
+      <c r="U161">
+        <v>60</v>
+      </c>
+      <c r="V161">
+        <v>120</v>
+      </c>
+      <c r="W161">
+        <v>60</v>
+      </c>
+      <c r="X161">
+        <v>50</v>
+      </c>
+      <c r="Z161" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" ht="15.5" spans="10:26">
+      <c r="J162" s="13">
+        <v>1158</v>
+      </c>
+      <c r="P162" s="6">
+        <v>11110</v>
+      </c>
+      <c r="Q162" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="R162">
+        <v>3</v>
+      </c>
+      <c r="S162" t="s">
+        <v>58</v>
+      </c>
+      <c r="T162">
+        <v>120</v>
+      </c>
+      <c r="U162">
+        <v>60</v>
+      </c>
+      <c r="V162">
+        <v>120</v>
+      </c>
+      <c r="W162">
+        <v>60</v>
+      </c>
+      <c r="X162">
+        <v>50</v>
+      </c>
+      <c r="Z162" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" ht="15.5" spans="10:26">
+      <c r="J163" s="13">
+        <v>1159</v>
+      </c>
+      <c r="P163" s="13">
+        <v>11111</v>
+      </c>
+      <c r="Q163" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="R163">
+        <v>3</v>
+      </c>
+      <c r="S163" t="s">
+        <v>58</v>
+      </c>
+      <c r="T163">
+        <v>120</v>
+      </c>
+      <c r="U163">
+        <v>60</v>
+      </c>
+      <c r="V163">
+        <v>120</v>
+      </c>
+      <c r="W163">
+        <v>60</v>
+      </c>
+      <c r="X163">
+        <v>50</v>
+      </c>
+      <c r="Z163" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" ht="15.5" spans="10:26">
+      <c r="J164" s="13">
+        <v>1160</v>
+      </c>
+      <c r="P164" s="6">
+        <v>11112</v>
+      </c>
+      <c r="Q164" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="R164">
+        <v>3</v>
+      </c>
+      <c r="S164" t="s">
+        <v>58</v>
+      </c>
+      <c r="T164">
+        <v>120</v>
+      </c>
+      <c r="U164">
+        <v>60</v>
+      </c>
+      <c r="V164">
+        <v>120</v>
+      </c>
+      <c r="W164">
+        <v>60</v>
+      </c>
+      <c r="X164">
+        <v>50</v>
+      </c>
+      <c r="Z164" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" ht="15.5" spans="10:26">
+      <c r="J165" s="13">
+        <v>1161</v>
+      </c>
+      <c r="P165" s="13">
+        <v>11113</v>
+      </c>
+      <c r="Q165" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="R165">
+        <v>3</v>
+      </c>
+      <c r="S165" t="s">
+        <v>58</v>
+      </c>
+      <c r="T165">
+        <v>120</v>
+      </c>
+      <c r="U165">
+        <v>60</v>
+      </c>
+      <c r="V165">
+        <v>120</v>
+      </c>
+      <c r="W165">
+        <v>60</v>
+      </c>
+      <c r="X165">
+        <v>50</v>
+      </c>
+      <c r="Z165" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" ht="15.5" spans="10:26">
+      <c r="J166" s="13">
+        <v>1162</v>
+      </c>
+      <c r="P166" s="6">
+        <v>11114</v>
+      </c>
+      <c r="Q166" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="R166">
+        <v>3</v>
+      </c>
+      <c r="S166" t="s">
+        <v>58</v>
+      </c>
+      <c r="T166">
+        <v>120</v>
+      </c>
+      <c r="U166">
+        <v>60</v>
+      </c>
+      <c r="V166">
+        <v>120</v>
+      </c>
+      <c r="W166">
+        <v>60</v>
+      </c>
+      <c r="X166">
+        <v>50</v>
+      </c>
+      <c r="Z166" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" ht="15.5" spans="10:26">
+      <c r="J167" s="13">
+        <v>1163</v>
+      </c>
+      <c r="P167" s="13">
+        <v>11115</v>
+      </c>
+      <c r="Q167" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="R167">
+        <v>3</v>
+      </c>
+      <c r="S167" t="s">
+        <v>58</v>
+      </c>
+      <c r="T167">
+        <v>120</v>
+      </c>
+      <c r="U167">
+        <v>60</v>
+      </c>
+      <c r="V167">
+        <v>120</v>
+      </c>
+      <c r="W167">
+        <v>60</v>
+      </c>
+      <c r="X167">
+        <v>50</v>
+      </c>
+      <c r="Z167" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" ht="15.5" spans="10:26">
+      <c r="J168" s="13">
+        <v>1164</v>
+      </c>
+      <c r="P168" s="6">
+        <v>11116</v>
+      </c>
+      <c r="Q168" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="R168">
+        <v>3</v>
+      </c>
+      <c r="S168" t="s">
+        <v>58</v>
+      </c>
+      <c r="T168">
+        <v>120</v>
+      </c>
+      <c r="U168">
+        <v>60</v>
+      </c>
+      <c r="V168">
+        <v>120</v>
+      </c>
+      <c r="W168">
+        <v>60</v>
+      </c>
+      <c r="X168">
+        <v>50</v>
+      </c>
+      <c r="Z168" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" ht="15.5" spans="10:26">
+      <c r="J169" s="13">
+        <v>1165</v>
+      </c>
+      <c r="P169" s="13">
+        <v>11117</v>
+      </c>
+      <c r="Q169" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="R169">
+        <v>3</v>
+      </c>
+      <c r="S169" t="s">
+        <v>58</v>
+      </c>
+      <c r="T169">
+        <v>120</v>
+      </c>
+      <c r="U169">
+        <v>60</v>
+      </c>
+      <c r="V169">
+        <v>120</v>
+      </c>
+      <c r="W169">
+        <v>60</v>
+      </c>
+      <c r="X169">
+        <v>50</v>
+      </c>
+      <c r="Z169" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" ht="15.5" spans="10:26">
+      <c r="J170" s="13">
+        <v>1166</v>
+      </c>
+      <c r="P170" s="6">
+        <v>11118</v>
+      </c>
+      <c r="Q170" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="R170">
+        <v>3</v>
+      </c>
+      <c r="S170" t="s">
+        <v>58</v>
+      </c>
+      <c r="T170">
+        <v>120</v>
+      </c>
+      <c r="U170">
+        <v>60</v>
+      </c>
+      <c r="V170">
+        <v>120</v>
+      </c>
+      <c r="W170">
+        <v>60</v>
+      </c>
+      <c r="X170">
+        <v>50</v>
+      </c>
+      <c r="Z170" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" ht="15.5" spans="10:26">
+      <c r="J171" s="13">
+        <v>1167</v>
+      </c>
+      <c r="P171" s="13">
+        <v>11119</v>
+      </c>
+      <c r="Q171" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="R171">
+        <v>3</v>
+      </c>
+      <c r="S171" t="s">
+        <v>58</v>
+      </c>
+      <c r="T171">
+        <v>120</v>
+      </c>
+      <c r="U171">
+        <v>60</v>
+      </c>
+      <c r="V171">
+        <v>120</v>
+      </c>
+      <c r="W171">
+        <v>60</v>
+      </c>
+      <c r="X171">
+        <v>50</v>
+      </c>
+      <c r="Z171" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" ht="15.5" spans="10:26">
+      <c r="J172" s="13">
+        <v>1168</v>
+      </c>
+      <c r="P172" s="6">
+        <v>11120</v>
+      </c>
+      <c r="Q172" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="R172">
+        <v>3</v>
+      </c>
+      <c r="S172" t="s">
+        <v>58</v>
+      </c>
+      <c r="T172">
+        <v>120</v>
+      </c>
+      <c r="U172">
+        <v>60</v>
+      </c>
+      <c r="V172">
+        <v>120</v>
+      </c>
+      <c r="W172">
+        <v>60</v>
+      </c>
+      <c r="X172">
+        <v>50</v>
+      </c>
+      <c r="Z172" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" ht="15.5" spans="10:26">
+      <c r="J173" s="13">
+        <v>1169</v>
+      </c>
+      <c r="P173" s="13">
+        <v>11121</v>
+      </c>
+      <c r="Q173" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="R173">
+        <v>3</v>
+      </c>
+      <c r="S173" t="s">
+        <v>58</v>
+      </c>
+      <c r="T173">
+        <v>120</v>
+      </c>
+      <c r="U173">
+        <v>60</v>
+      </c>
+      <c r="V173">
+        <v>120</v>
+      </c>
+      <c r="W173">
+        <v>60</v>
+      </c>
+      <c r="X173">
+        <v>50</v>
+      </c>
+      <c r="Z173" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" ht="15.5" spans="10:26">
+      <c r="J174" s="13">
+        <v>1170</v>
+      </c>
+      <c r="P174" s="6">
+        <v>11122</v>
+      </c>
+      <c r="Q174" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="R174">
+        <v>3</v>
+      </c>
+      <c r="S174" t="s">
+        <v>58</v>
+      </c>
+      <c r="T174">
+        <v>120</v>
+      </c>
+      <c r="U174">
+        <v>60</v>
+      </c>
+      <c r="V174">
+        <v>120</v>
+      </c>
+      <c r="W174">
+        <v>60</v>
+      </c>
+      <c r="X174">
+        <v>50</v>
+      </c>
+      <c r="Z174" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" ht="15.5" spans="10:26">
+      <c r="J175" s="13">
+        <v>1171</v>
+      </c>
+      <c r="P175" s="13">
+        <v>11123</v>
+      </c>
+      <c r="Q175" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="R175">
+        <v>3</v>
+      </c>
+      <c r="S175" t="s">
+        <v>58</v>
+      </c>
+      <c r="T175">
+        <v>120</v>
+      </c>
+      <c r="U175">
+        <v>60</v>
+      </c>
+      <c r="V175">
+        <v>120</v>
+      </c>
+      <c r="W175">
+        <v>60</v>
+      </c>
+      <c r="X175">
+        <v>50</v>
+      </c>
+      <c r="Z175" s="6">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="J1:Z1"/>
     <mergeCell ref="J3:Z3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="Q74" r:id="rId1" display="邪影芳灵经验" tooltip="http://www.baidu.com/link?url=l12dmBg3NEtasdYj_1eirbwFNLBePPbwIYwDp3ReKv__8V24U20rZWzU4HgghwRg0UjfDf_XvTl5hIaoArvShq"/>
+    <hyperlink ref="Q75" r:id="rId2" display="破晓辰星经验" tooltip="http://www.baidu.com/link?url=vaEqnYVBkmW6puGC7wnDVm08jlaH8cZ0B0okAfCm3f4XGYFiPcPlIHddQhqbW8F7ar9ZAGjbHTqIbVyCYfXsla"/>
+    <hyperlink ref="Q81" r:id="rId3" display="卓尔游侠经验" tooltip="http://www.baidu.com/link?url=I22yPUlo-PKmBww8jRjXkG7HTxJD8EvR23L-N1kCMPaMHpCMpAtBvl-YTUIygF1108oyABEEAVe71ELg6bnM0a"/>
+    <hyperlink ref="Q90" r:id="rId4" display="天涯墨客经验" tooltip="http://www.baidu.com/link?url=oeNNFnvdtAHgdInZKgObdPaENoGBCwSK2V4TuIk3cKPDAWLqWSJr00h_y7KK8UwVjGM5GQemOWGiMBvxG4UaOq"/>
+    <hyperlink ref="Q124" r:id="rId5" display="神谕者经验" tooltip="http://www.baidu.com/link?url=GUSqsirNIFse6jcyPMJ-scCyfsTfa3qsbf4tGD4ATQ2d44imbZhfmi6Y626qX3sw"/>
+    <hyperlink ref="Q147" r:id="rId6" display="电炎绝手经验" tooltip="http://www.baidu.com/link?url=yqgChDdO7NcZRZvBYFJAeHP5IKhoZXtab_ZZEP5nJrf-i556n7JHzy8iIEQHnPHk"/>
+    <hyperlink ref="Q150" r:id="rId7" display="裂魂人经验" tooltip="http://www.baidu.com/link?url=sPSrX7YpVeGO2go1fz05Dgpg2CvLKfO5ktD5uv5LxwOZG7cQL3R9NKm6mwtA17xJk9l-Uaw0Jsv5zO_v4dnxjq"/>
+    <hyperlink ref="Q167" r:id="rId8" display="维萨吉经验" tooltip="http://www.baidu.com/link?url=b54vWxoxFCKV9kf4pvjVLyXVxnpCs5FgPT__PMBtwo0xRUe9fMVWNeRvHD8pYGxp"/>
+    <hyperlink ref="Q169" r:id="rId9" display="术士经验" tooltip="http://www.baidu.com/link?url=RjGITYZHTKoyM7GsdndDIZTiMH8hWWpySGS4ODNOAaKsw3Q9PmTZfq3dZ8xBYfooZo_x5FaNdk81XaYHDMGVq2LoDKwrC_Hi6UfgLfl9hfa"/>
+    <hyperlink ref="Q170" r:id="rId10" display="编织者经验" tooltip="http://www.baidu.com/link?url=8m5k2RsZExjbuFFM8XNcafXgauahVfHML8bqp3l4hdLtDJs0rwsxlY23iiaxHYPr"/>
+    <hyperlink ref="Q173" r:id="rId11" display="艾欧经验" tooltip="http://www.baidu.com/link?url=N0EB_y3AiV_LvbrP4j-H1H5YFNq9kRJuvnwqedrel7WXbJHYPNLQxdP5xyPFlshD"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Doc/ExcelConfig/Datas/商店/ShopConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/商店/ShopConfig.xlsx
@@ -1717,8 +1717,8 @@
   <sheetPr/>
   <dimension ref="A1:Z175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51:J175"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Doc/ExcelConfig/Datas/商店/ShopConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/商店/ShopConfig.xlsx
@@ -215,25 +215,25 @@
     <t>道具2</t>
   </si>
   <si>
+    <t>道具3</t>
+  </si>
+  <si>
+    <t>道具4</t>
+  </si>
+  <si>
+    <t>道具5</t>
+  </si>
+  <si>
+    <t>道具6</t>
+  </si>
+  <si>
+    <t>道具7</t>
+  </si>
+  <si>
+    <t>道具8</t>
+  </si>
+  <si>
     <t>Money</t>
-  </si>
-  <si>
-    <t>道具3</t>
-  </si>
-  <si>
-    <t>道具4</t>
-  </si>
-  <si>
-    <t>道具5</t>
-  </si>
-  <si>
-    <t>道具6</t>
-  </si>
-  <si>
-    <t>道具7</t>
-  </si>
-  <si>
-    <t>道具8</t>
   </si>
   <si>
     <t>道具9</t>
@@ -1718,7 +1718,7 @@
   <dimension ref="A1:Z175"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:Z3"/>
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1999,7 +1999,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="13">
-        <v>10001</v>
+        <v>10017</v>
       </c>
       <c r="Q5" t="s">
         <v>57</v>
@@ -2025,9 +2025,7 @@
       <c r="X5">
         <v>50</v>
       </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
+      <c r="Y5"/>
       <c r="Z5" s="6">
         <v>1</v>
       </c>
@@ -2048,7 +2046,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="13">
-        <v>10002</v>
+        <v>10018</v>
       </c>
       <c r="Q6" t="s">
         <v>59</v>
@@ -2057,7 +2055,7 @@
         <v>2</v>
       </c>
       <c r="S6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T6">
         <v>110</v>
@@ -2093,10 +2091,10 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="13">
-        <v>10003</v>
+        <v>10019</v>
       </c>
       <c r="Q7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R7">
         <v>3</v>
@@ -2138,16 +2136,16 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="13">
-        <v>10004</v>
+        <v>10020</v>
       </c>
       <c r="Q8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R8">
         <v>4</v>
       </c>
       <c r="S8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T8">
         <v>130</v>
@@ -2184,10 +2182,10 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="13">
-        <v>10005</v>
+        <v>10021</v>
       </c>
       <c r="Q9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R9">
         <v>5</v>
@@ -2230,16 +2228,16 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="13">
-        <v>10006</v>
+        <v>10022</v>
       </c>
       <c r="Q10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R10">
         <v>6</v>
       </c>
       <c r="S10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="T10">
         <v>150</v>
@@ -2278,7 +2276,7 @@
         <v>10007</v>
       </c>
       <c r="Q11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R11">
         <v>7</v>
@@ -2324,13 +2322,13 @@
         <v>10008</v>
       </c>
       <c r="Q12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R12">
         <v>8</v>
       </c>
       <c r="S12" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T12">
         <v>170</v>
@@ -2422,7 +2420,7 @@
         <v>10</v>
       </c>
       <c r="S14" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T14">
         <v>190</v>
@@ -2514,7 +2512,7 @@
         <v>12</v>
       </c>
       <c r="S16" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T16">
         <v>210</v>
@@ -2615,7 +2613,7 @@
         <v>14</v>
       </c>
       <c r="S18" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T18">
         <v>230</v>
@@ -2718,7 +2716,7 @@
         <v>16</v>
       </c>
       <c r="S20" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T20">
         <v>250</v>
@@ -2826,7 +2824,7 @@
         <v>18</v>
       </c>
       <c r="S22" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T22">
         <v>270</v>
@@ -2926,7 +2924,7 @@
         <v>20</v>
       </c>
       <c r="S24" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T24">
         <v>290</v>
@@ -3026,7 +3024,7 @@
         <v>22</v>
       </c>
       <c r="S26" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T26">
         <v>310</v>
@@ -3126,7 +3124,7 @@
         <v>24</v>
       </c>
       <c r="S28" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T28">
         <v>330</v>
@@ -3229,7 +3227,7 @@
         <v>26</v>
       </c>
       <c r="S30" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T30">
         <v>350</v>
@@ -3329,7 +3327,7 @@
         <v>28</v>
       </c>
       <c r="S32" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T32">
         <v>370</v>
@@ -3425,7 +3423,7 @@
         <v>30</v>
       </c>
       <c r="S34" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T34">
         <v>390</v>
@@ -3521,7 +3519,7 @@
         <v>32</v>
       </c>
       <c r="S36" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T36">
         <v>410</v>
@@ -3625,7 +3623,7 @@
         <v>34</v>
       </c>
       <c r="S38" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T38">
         <v>430</v>
@@ -3721,7 +3719,7 @@
         <v>36</v>
       </c>
       <c r="S40" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T40">
         <v>450</v>
@@ -3817,7 +3815,7 @@
         <v>38</v>
       </c>
       <c r="S42" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T42">
         <v>470</v>
@@ -3913,7 +3911,7 @@
         <v>40</v>
       </c>
       <c r="S44" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T44">
         <v>490</v>
@@ -4009,7 +4007,7 @@
         <v>42</v>
       </c>
       <c r="S46" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T46">
         <v>510</v>
@@ -4105,7 +4103,7 @@
         <v>44</v>
       </c>
       <c r="S48" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T48">
         <v>530</v>
@@ -4201,7 +4199,7 @@
         <v>46</v>
       </c>
       <c r="S50" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T50">
         <v>550</v>
@@ -4297,7 +4295,7 @@
         <v>48</v>
       </c>
       <c r="S52" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="T52">
         <v>570</v>

--- a/Doc/ExcelConfig/Datas/商店/ShopConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/商店/ShopConfig.xlsx
@@ -1717,8 +1717,8 @@
   <sheetPr/>
   <dimension ref="A1:Z175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2025,7 +2025,6 @@
       <c r="X5">
         <v>50</v>
       </c>
-      <c r="Y5"/>
       <c r="Z5" s="6">
         <v>1</v>
       </c>
